--- a/Template/LiveHTS.xlsx
+++ b/Template/LiveHTS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19035" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19035" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Profile" sheetId="9" r:id="rId1"/>
@@ -17,9 +17,10 @@
     <sheet name="Configs" sheetId="10" r:id="rId3"/>
     <sheet name="Branches" sheetId="13" r:id="rId4"/>
     <sheet name="Validations" sheetId="14" r:id="rId5"/>
-    <sheet name="HTS Testing" sheetId="7" r:id="rId6"/>
-    <sheet name="HTS Linkage" sheetId="8" r:id="rId7"/>
-    <sheet name="IDS" sheetId="12" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId6"/>
+    <sheet name="HTS Testing" sheetId="7" r:id="rId7"/>
+    <sheet name="HTS Linkage" sheetId="8" r:id="rId8"/>
+    <sheet name="IDS" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="783">
   <si>
     <t>Ever Tested?</t>
   </si>
@@ -3034,6 +3035,33 @@
       </rPr>
       <t xml:space="preserve"> of the test kit</t>
     </r>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>HIV Test 1 Test Result,  b2604ce4-852f-11e7-bb31-be2e44b06b34</t>
+  </si>
+  <si>
+    <t>Reason Result Not Given?</t>
+  </si>
+  <si>
+    <t>Reason Result Not Given?,  b25fdf3e-852f-11e7-bb31-be2e44b06b34</t>
+  </si>
+  <si>
+    <t>18.a</t>
+  </si>
+  <si>
+    <t>Reason Result Not Given</t>
+  </si>
+  <si>
+    <t>Reason Result Not Given,  b26067b0-852f-11e7-bb31-be2e44b06b34</t>
   </si>
 </sst>
 </file>
@@ -3115,7 +3143,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3185,6 +3213,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF606060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3361,7 +3395,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3589,6 +3623,7 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4164,8 +4199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4847,9 +4882,31 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>335</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>779</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>780</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>781</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>781</v>
+      </c>
+      <c r="F24" s="46">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="G24" s="48" t="s">
+        <v>679</v>
+      </c>
+      <c r="H24" s="46" t="str">
+        <f t="shared" ref="H24" si="1">D24&amp;",  "&amp;A24</f>
+        <v>Reason Result Not Given,  b26067b0-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -5059,7 +5116,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Configs!$E$3:$E$11</xm:f>
@@ -5076,7 +5133,13 @@
           <x14:formula1>
             <xm:f>Configs!$AA$3:$AA$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G23</xm:sqref>
+          <xm:sqref>G2:G24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Configs!$E$3:$E$27</xm:f>
+          </x14:formula1>
+          <xm:sqref>B24</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5089,13 +5152,13 @@
   <dimension ref="A1:AD62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="56.42578125" style="3" bestFit="1" customWidth="1"/>
@@ -5838,7 +5901,7 @@
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="3" t="str">
-        <f t="shared" ref="E13:E21" si="2">B13&amp;",  "&amp;A13</f>
+        <f t="shared" ref="E13:E22" si="2">B13&amp;",  "&amp;A13</f>
         <v>Kit Name: ,  b25fcd6e-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="I13" t="s">
@@ -6276,6 +6339,17 @@
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>272</v>
+      </c>
+      <c r="B22" s="66" t="s">
+        <v>778</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Reason Result Not Given?,  b25fdf3e-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="I22" t="s">
         <v>252</v>
@@ -6872,10 +6946,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O80">
       <formula1>$W$3:$W$50</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D22">
       <formula1>$K$3:$K$22</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C22">
       <formula1>$G$3:$G$7</formula1>
     </dataValidation>
   </dataValidations>
@@ -6888,8 +6962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="53.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7053,6 +7127,29 @@
       <c r="B6" t="s">
         <v>436</v>
       </c>
+      <c r="C6" s="58" t="s">
+        <v>749</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>764</v>
+      </c>
+      <c r="F6" t="s">
+        <v>765</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>646</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="58" t="s">
+        <v>685</v>
+      </c>
+      <c r="K6" s="58" t="s">
+        <v>782</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -7238,13 +7335,13 @@
           <x14:formula1>
             <xm:f>Configs!$O$3:$O$33</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G5</xm:sqref>
+          <xm:sqref>G2:G6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>HTS!$H$2:$H$25</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C5 E2 K2:K5</xm:sqref>
+          <xm:sqref>C2:C6 E2 K2:K6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7256,8 +7353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="55.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8095,6 +8192,298 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="75.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="60.140625" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>693</v>
+      </c>
+      <c r="C1" s="85" t="s">
+        <v>756</v>
+      </c>
+      <c r="D1" s="85" t="s">
+        <v>758</v>
+      </c>
+      <c r="E1" s="85" t="s">
+        <v>759</v>
+      </c>
+      <c r="F1" s="85" t="s">
+        <v>760</v>
+      </c>
+      <c r="G1" s="85" t="s">
+        <v>761</v>
+      </c>
+      <c r="H1" s="85" t="s">
+        <v>757</v>
+      </c>
+      <c r="I1" s="85" t="s">
+        <v>762</v>
+      </c>
+      <c r="J1" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="85" t="s">
+        <v>774</v>
+      </c>
+      <c r="L1" s="85" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>700</v>
+      </c>
+      <c r="C2" t="s">
+        <v>764</v>
+      </c>
+      <c r="D2" t="s">
+        <v>765</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>653</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>750</v>
+      </c>
+      <c r="I2" t="s">
+        <v>776</v>
+      </c>
+      <c r="J2" s="3">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>700</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>653</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>750</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>647</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>777</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>719</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="58" t="s">
+        <v>748</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>719</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>475</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>777</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>653</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="58" t="s">
+        <v>748</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>491</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Configs!$O$3:$O$33</xm:f>
+          </x14:formula1>
+          <xm:sqref>K3:K4 E2:E5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>HTS!$H$2:$H$25</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H5 B2:B5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8288,7 +8677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -8357,12 +8746,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A41:A213"/>
+  <dimension ref="A61:A213"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A40"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8370,106 +8759,6 @@
     <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>491</v>
-      </c>
-    </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>492</v>

--- a/Template/LiveHTS.xlsx
+++ b/Template/LiveHTS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19035" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34725" windowHeight="19035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Profile" sheetId="9" r:id="rId1"/>
@@ -17,10 +17,12 @@
     <sheet name="Configs" sheetId="10" r:id="rId3"/>
     <sheet name="Branches" sheetId="13" r:id="rId4"/>
     <sheet name="Validations" sheetId="14" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="15" r:id="rId6"/>
-    <sheet name="HTS Testing" sheetId="7" r:id="rId7"/>
-    <sheet name="HTS Linkage" sheetId="8" r:id="rId8"/>
-    <sheet name="IDS" sheetId="12" r:id="rId9"/>
+    <sheet name="Transformation" sheetId="15" r:id="rId6"/>
+    <sheet name="RemoteTransformation" sheetId="16" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="17" r:id="rId8"/>
+    <sheet name="HTS Testing" sheetId="7" r:id="rId9"/>
+    <sheet name="HTS Linkage" sheetId="8" r:id="rId10"/>
+    <sheet name="IDS" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="793">
   <si>
     <t>Ever Tested?</t>
   </si>
@@ -2745,9 +2747,6 @@
     <t>DateTime</t>
   </si>
   <si>
-    <t>YesNo,  b25f86d8-852f-11e7-bb31-be2e44b06b42</t>
-  </si>
-  <si>
     <t>H1</t>
   </si>
   <si>
@@ -3040,6 +3039,9 @@
     <t>Content</t>
   </si>
   <si>
+    <t>Pre</t>
+  </si>
+  <si>
     <t>Set</t>
   </si>
   <si>
@@ -3062,6 +3064,36 @@
   </si>
   <si>
     <t>Reason Result Not Given,  b26067b0-852f-11e7-bb31-be2e44b06b34</t>
+  </si>
+  <si>
+    <t>AltContent</t>
+  </si>
+  <si>
+    <t>Client.Partner.No</t>
+  </si>
+  <si>
+    <t>Client.Partner.Yes</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>ClientAttributeId</t>
+  </si>
+  <si>
+    <t>RemoteQuestionId</t>
+  </si>
+  <si>
+    <t>SelfQuestionId</t>
+  </si>
+  <si>
+    <t>!=</t>
+  </si>
+  <si>
+    <t>25eccd4-852f-11e7-bb31-be2e44b06b34</t>
+  </si>
+  <si>
+    <t>25ed04e-852f-11e7-bb31-be2e44b06b34</t>
   </si>
 </sst>
 </file>
@@ -3070,9 +3102,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0;\-0"/>
-    <numFmt numFmtId="169" formatCode="0.00;\-0.00"/>
+    <numFmt numFmtId="165" formatCode="0.00;\-0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3141,6 +3173,11 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="14">
@@ -3395,7 +3432,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3560,18 +3597,6 @@
     <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3616,7 +3641,7 @@
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3624,6 +3649,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4195,12 +4238,809 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" activeCellId="1" sqref="A2 A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A72:A213"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:A71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>644</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4231,7 +5071,7 @@
       <c r="D1" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="74" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="47" t="s">
@@ -4429,16 +5269,16 @@
         <v>319</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C8" s="48">
         <v>8</v>
       </c>
-      <c r="D8" s="76" t="s">
-        <v>766</v>
-      </c>
-      <c r="E8" s="76" t="s">
-        <v>766</v>
+      <c r="D8" s="72" t="s">
+        <v>765</v>
+      </c>
+      <c r="E8" s="72" t="s">
+        <v>765</v>
       </c>
       <c r="F8" s="49">
         <v>8</v>
@@ -4450,23 +5290,23 @@
         <f t="shared" si="0"/>
         <v>HIV Test 1 Kit Name,  b26045aa-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="J8" s="75"/>
+      <c r="J8" s="71"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>320</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C9" s="48">
         <v>9</v>
       </c>
-      <c r="D9" s="77" t="s">
-        <v>767</v>
-      </c>
-      <c r="E9" s="77" t="s">
-        <v>767</v>
+      <c r="D9" s="73" t="s">
+        <v>766</v>
+      </c>
+      <c r="E9" s="73" t="s">
+        <v>766</v>
       </c>
       <c r="F9" s="49">
         <v>9</v>
@@ -4478,23 +5318,23 @@
         <f t="shared" si="0"/>
         <v>HIV Test 1 Lot number of the test kit,  b260487a-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="J9" s="75"/>
+      <c r="J9" s="71"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>321</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C10" s="48">
         <v>10</v>
       </c>
-      <c r="D10" s="77" t="s">
-        <v>768</v>
-      </c>
-      <c r="E10" s="77" t="s">
-        <v>768</v>
+      <c r="D10" s="73" t="s">
+        <v>767</v>
+      </c>
+      <c r="E10" s="73" t="s">
+        <v>767</v>
       </c>
       <c r="F10" s="49">
         <v>10</v>
@@ -4506,23 +5346,23 @@
         <f t="shared" si="0"/>
         <v>HIV Test 1 Expiry date of the test kit.,  b26049f6-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="J10" s="75"/>
+      <c r="J10" s="71"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>322</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C11" s="48">
         <v>11</v>
       </c>
-      <c r="D11" s="76" t="s">
-        <v>769</v>
-      </c>
-      <c r="E11" s="76" t="s">
-        <v>769</v>
+      <c r="D11" s="72" t="s">
+        <v>768</v>
+      </c>
+      <c r="E11" s="72" t="s">
+        <v>768</v>
       </c>
       <c r="F11" s="49">
         <v>11</v>
@@ -4534,23 +5374,23 @@
         <f t="shared" si="0"/>
         <v>HIV Test 1 Test Result,  b2604ce4-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="J11" s="75"/>
+      <c r="J11" s="71"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>323</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C12" s="48">
         <v>13</v>
       </c>
-      <c r="D12" s="76" t="s">
-        <v>770</v>
-      </c>
-      <c r="E12" s="76" t="s">
-        <v>770</v>
+      <c r="D12" s="72" t="s">
+        <v>769</v>
+      </c>
+      <c r="E12" s="72" t="s">
+        <v>769</v>
       </c>
       <c r="F12" s="49">
         <v>13</v>
@@ -4562,23 +5402,23 @@
         <f t="shared" si="0"/>
         <v>HIV Test 2 Kit Name,  b260511c-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="J12" s="75"/>
+      <c r="J12" s="71"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>324</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C13" s="48">
         <v>14</v>
       </c>
-      <c r="D13" s="77" t="s">
-        <v>773</v>
-      </c>
-      <c r="E13" s="77" t="s">
-        <v>773</v>
+      <c r="D13" s="73" t="s">
+        <v>772</v>
+      </c>
+      <c r="E13" s="73" t="s">
+        <v>772</v>
       </c>
       <c r="F13" s="49">
         <v>14</v>
@@ -4590,23 +5430,23 @@
         <f t="shared" si="0"/>
         <v>HIV Test 2 Lot number of the test kit,  b260525c-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="J13" s="75"/>
+      <c r="J13" s="71"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>325</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C14" s="48">
         <v>15</v>
       </c>
-      <c r="D14" s="77" t="s">
-        <v>772</v>
-      </c>
-      <c r="E14" s="77" t="s">
-        <v>772</v>
+      <c r="D14" s="73" t="s">
+        <v>771</v>
+      </c>
+      <c r="E14" s="73" t="s">
+        <v>771</v>
       </c>
       <c r="F14" s="49">
         <v>15</v>
@@ -4618,23 +5458,23 @@
         <f t="shared" si="0"/>
         <v>HIV Test 2 Expiry date of the test kit.,  b2605540-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="J14" s="75"/>
+      <c r="J14" s="71"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>326</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C15" s="48">
         <v>16</v>
       </c>
-      <c r="D15" s="76" t="s">
-        <v>771</v>
-      </c>
-      <c r="E15" s="76" t="s">
-        <v>771</v>
+      <c r="D15" s="72" t="s">
+        <v>770</v>
+      </c>
+      <c r="E15" s="72" t="s">
+        <v>770</v>
       </c>
       <c r="F15" s="49">
         <v>16</v>
@@ -4646,22 +5486,22 @@
         <f t="shared" si="0"/>
         <v>HIV Test 2 Test Result,  b2605694-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="J15" s="75"/>
+      <c r="J15" s="71"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>327</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C16" s="48">
         <v>17</v>
       </c>
-      <c r="D16" s="76" t="s">
+      <c r="D16" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="76" t="s">
+      <c r="E16" s="72" t="s">
         <v>64</v>
       </c>
       <c r="F16" s="49">
@@ -4674,22 +5514,22 @@
         <f t="shared" si="0"/>
         <v>Final Result,  b2605964-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="J16" s="75"/>
+      <c r="J16" s="71"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>328</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C17" s="48">
         <v>18</v>
       </c>
-      <c r="D17" s="76" t="s">
+      <c r="D17" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="76" t="s">
+      <c r="E17" s="72" t="s">
         <v>66</v>
       </c>
       <c r="F17" s="49">
@@ -4702,22 +5542,22 @@
         <f t="shared" si="0"/>
         <v>Final Result Given?,  b2605ab8-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="J17" s="75"/>
+      <c r="J17" s="71"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>329</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C18" s="48">
         <v>19</v>
       </c>
-      <c r="D18" s="76" t="s">
+      <c r="D18" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="76" t="s">
+      <c r="E18" s="72" t="s">
         <v>69</v>
       </c>
       <c r="F18" s="49">
@@ -4730,7 +5570,7 @@
         <f t="shared" si="0"/>
         <v>Couple Discordant,  b2605c98-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="J18" s="75"/>
+      <c r="J18" s="71"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -4769,15 +5609,15 @@
         <v>331</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C20" s="48">
         <v>21</v>
       </c>
-      <c r="D20" s="76" t="s">
+      <c r="D20" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="76" t="s">
+      <c r="E20" s="72" t="s">
         <v>78</v>
       </c>
       <c r="F20" s="49">
@@ -4798,15 +5638,15 @@
         <v>332</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C21" s="48">
         <v>22</v>
       </c>
-      <c r="D21" s="77" t="s">
+      <c r="D21" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="77" t="s">
+      <c r="E21" s="73" t="s">
         <v>81</v>
       </c>
       <c r="F21" s="49">
@@ -5152,7 +5992,7 @@
   <dimension ref="A1:AD62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5190,34 +6030,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="62"/>
+      <c r="B1" s="83"/>
       <c r="C1" s="53"/>
       <c r="D1" s="21"/>
       <c r="G1" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="62"/>
+      <c r="J1" s="83"/>
       <c r="K1" s="21"/>
-      <c r="M1" s="63" t="s">
+      <c r="M1" s="84" t="s">
         <v>130</v>
       </c>
-      <c r="N1" s="64"/>
-      <c r="T1" s="62" t="s">
+      <c r="N1" s="85"/>
+      <c r="T1" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="21"/>
-      <c r="Y1" s="65" t="s">
+      <c r="Y1" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="Z1" s="65"/>
+      <c r="Z1" s="86"/>
       <c r="AC1" t="s">
         <v>681</v>
       </c>
@@ -5299,7 +6139,7 @@
         <v>665</v>
       </c>
       <c r="E3" s="3" t="str">
-        <f>B3&amp;",  "&amp;A3</f>
+        <f t="shared" ref="E3:E12" si="0">B3&amp;",  "&amp;A3</f>
         <v>Ever Tested,  b25fb496-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="G3" s="50" t="s">
@@ -5328,7 +6168,7 @@
       <c r="Q3" s="37">
         <v>1</v>
       </c>
-      <c r="R3" s="83"/>
+      <c r="R3" s="79"/>
       <c r="T3" t="s">
         <v>153</v>
       </c>
@@ -5372,7 +6212,7 @@
       </c>
       <c r="D4" s="29"/>
       <c r="E4" s="3" t="str">
-        <f>B4&amp;",  "&amp;A4</f>
+        <f t="shared" si="0"/>
         <v>Re-Testing,  b25fb5fe-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="G4" s="32" t="s">
@@ -5385,7 +6225,7 @@
         <v>4</v>
       </c>
       <c r="K4" s="30" t="str">
-        <f t="shared" ref="K4:K11" si="0">J4&amp;",  "&amp;I4</f>
+        <f t="shared" ref="K4:K11" si="1">J4&amp;",  "&amp;I4</f>
         <v>Disability,  b25f8926-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="M4" t="s">
@@ -5401,7 +6241,7 @@
       <c r="Q4" s="37">
         <v>2</v>
       </c>
-      <c r="R4" s="83"/>
+      <c r="R4" s="79"/>
       <c r="T4" t="s">
         <v>154</v>
       </c>
@@ -5412,7 +6252,7 @@
         <v>113</v>
       </c>
       <c r="W4" s="41" t="str">
-        <f t="shared" ref="W4:W37" si="1">U4&amp;",  "&amp;T4</f>
+        <f t="shared" ref="W4:W28" si="2">U4&amp;",  "&amp;T4</f>
         <v>N,  b25ed04e-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="X4" s="44"/>
@@ -5441,7 +6281,7 @@
         <v>666</v>
       </c>
       <c r="E5" s="3" t="str">
-        <f>B5&amp;",  "&amp;A5</f>
+        <f t="shared" si="0"/>
         <v>Disability,  b25fb86a-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="G5" s="50" t="s">
@@ -5454,7 +6294,7 @@
         <v>131</v>
       </c>
       <c r="K5" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TestedAs,  b25f8b88-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="M5" t="s">
@@ -5470,7 +6310,7 @@
       <c r="Q5" s="37">
         <v>1</v>
       </c>
-      <c r="R5" s="83"/>
+      <c r="R5" s="79"/>
       <c r="T5" t="s">
         <v>155</v>
       </c>
@@ -5481,7 +6321,7 @@
         <v>140</v>
       </c>
       <c r="W5" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NA,  b25ed1c0-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="X5" s="27"/>
@@ -5503,7 +6343,7 @@
         <v>665</v>
       </c>
       <c r="E6" s="3" t="str">
-        <f>B6&amp;",  "&amp;A6</f>
+        <f t="shared" si="0"/>
         <v>Consent,  b25fbb30-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="G6" s="32" t="s">
@@ -5516,7 +6356,7 @@
         <v>55</v>
       </c>
       <c r="K6" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Strategy,  b25f8fa2-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="M6" t="s">
@@ -5532,7 +6372,7 @@
       <c r="Q6" s="37">
         <v>2</v>
       </c>
-      <c r="R6" s="83"/>
+      <c r="R6" s="79"/>
       <c r="T6" t="s">
         <v>156</v>
       </c>
@@ -5543,7 +6383,7 @@
         <v>5</v>
       </c>
       <c r="W6" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>D,  b25ed332-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="X6" s="27"/>
@@ -5565,10 +6405,10 @@
         <v>667</v>
       </c>
       <c r="E7" s="3" t="str">
-        <f>B7&amp;",  "&amp;A7</f>
+        <f t="shared" si="0"/>
         <v>Client tested as,  b25fbcca-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="G7" s="71" t="s">
+      <c r="G7" s="67" t="s">
         <v>709</v>
       </c>
       <c r="I7" t="s">
@@ -5578,7 +6418,7 @@
         <v>132</v>
       </c>
       <c r="K7" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TBScreening,  b25f911e-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="M7" t="s">
@@ -5594,7 +6434,7 @@
       <c r="Q7" s="37">
         <v>3</v>
       </c>
-      <c r="R7" s="83"/>
+      <c r="R7" s="79"/>
       <c r="T7" t="s">
         <v>157</v>
       </c>
@@ -5605,7 +6445,7 @@
         <v>6</v>
       </c>
       <c r="W7" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>B,  b25ed648-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="X7" s="27"/>
@@ -5627,17 +6467,17 @@
         <v>668</v>
       </c>
       <c r="E8" s="3" t="str">
-        <f>B8&amp;",  "&amp;A8</f>
+        <f t="shared" si="0"/>
         <v>Strategy,  b25fbf5e-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="I8" t="s">
         <v>238</v>
       </c>
-      <c r="J8" s="66" t="s">
-        <v>715</v>
+      <c r="J8" s="62" t="s">
+        <v>714</v>
       </c>
       <c r="K8" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HIVTest,  b25f93d0-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="M8" t="s">
@@ -5653,7 +6493,7 @@
       <c r="Q8" s="37">
         <v>4</v>
       </c>
-      <c r="R8" s="83"/>
+      <c r="R8" s="79"/>
       <c r="T8" t="s">
         <v>158</v>
       </c>
@@ -5664,7 +6504,7 @@
         <v>7</v>
       </c>
       <c r="W8" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>M,  b25ed7c4-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="X8" s="27"/>
@@ -5686,17 +6526,17 @@
         <v>669</v>
       </c>
       <c r="E9" s="3" t="str">
-        <f>B9&amp;",  "&amp;A9</f>
+        <f t="shared" si="0"/>
         <v>TB Screening,  b25fc0c6-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="I9" t="s">
         <v>239</v>
       </c>
-      <c r="J9" s="66" t="s">
-        <v>716</v>
+      <c r="J9" s="62" t="s">
+        <v>715</v>
       </c>
       <c r="K9" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TestResult,  b25f951a-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="M9" t="s">
@@ -5712,7 +6552,7 @@
       <c r="Q9" s="37">
         <v>5</v>
       </c>
-      <c r="R9" s="83"/>
+      <c r="R9" s="79"/>
       <c r="T9" t="s">
         <v>159</v>
       </c>
@@ -5723,7 +6563,7 @@
         <v>8</v>
       </c>
       <c r="W9" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>P,  b25ed9ea-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="X9" s="27"/>
@@ -5742,17 +6582,17 @@
         <v>665</v>
       </c>
       <c r="E10" s="3" t="str">
-        <f>B10&amp;",  "&amp;A10</f>
+        <f t="shared" si="0"/>
         <v>HIV self-test,  b25fc698-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="I10" t="s">
         <v>240</v>
       </c>
-      <c r="J10" s="66" t="s">
-        <v>722</v>
+      <c r="J10" s="62" t="s">
+        <v>721</v>
       </c>
       <c r="K10" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>FinalResult,  b25f97a4-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="M10" t="s">
@@ -5768,7 +6608,7 @@
       <c r="Q10" s="37">
         <v>6</v>
       </c>
-      <c r="R10" s="83"/>
+      <c r="R10" s="79"/>
       <c r="T10" t="s">
         <v>160</v>
       </c>
@@ -5779,7 +6619,7 @@
         <v>139</v>
       </c>
       <c r="W10" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>O,  b25edb5c-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="X10" s="27"/>
@@ -5796,17 +6636,17 @@
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="3" t="str">
-        <f>B11&amp;",  "&amp;A11</f>
+        <f t="shared" si="0"/>
         <v>Remarks,  b25fc864-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="I11" t="s">
         <v>241</v>
       </c>
       <c r="J11" s="55" t="s">
-        <v>726</v>
-      </c>
-      <c r="K11" s="70" t="str">
-        <f t="shared" si="0"/>
+        <v>725</v>
+      </c>
+      <c r="K11" s="66" t="str">
+        <f t="shared" si="1"/>
         <v>YesNoNa,  b25f9952-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="M11" t="s">
@@ -5822,7 +6662,7 @@
       <c r="Q11" s="37">
         <v>1</v>
       </c>
-      <c r="R11" s="83"/>
+      <c r="R11" s="79"/>
       <c r="T11" t="s">
         <v>161</v>
       </c>
@@ -5833,7 +6673,7 @@
         <v>53</v>
       </c>
       <c r="W11" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>I,  b25ede36-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="X11" s="27"/>
@@ -5842,24 +6682,24 @@
       <c r="A12" t="s">
         <v>262</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="62" t="s">
         <v>708</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>99</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E12" s="3" t="str">
-        <f>B12&amp;",  "&amp;A12</f>
+        <f t="shared" si="0"/>
         <v>HIV Test,  b25fcac6-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="I12" t="s">
         <v>242</v>
       </c>
       <c r="J12" s="14"/>
-      <c r="K12" s="70"/>
+      <c r="K12" s="66"/>
       <c r="M12" t="s">
         <v>202</v>
       </c>
@@ -5873,7 +6713,7 @@
       <c r="Q12" s="38">
         <v>2</v>
       </c>
-      <c r="R12" s="84"/>
+      <c r="R12" s="80"/>
       <c r="T12" t="s">
         <v>162</v>
       </c>
@@ -5884,7 +6724,7 @@
         <v>54</v>
       </c>
       <c r="W12" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>C,  b25ee0a2-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="X12" s="27"/>
@@ -5893,7 +6733,7 @@
       <c r="A13" t="s">
         <v>263</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="62" t="s">
         <v>702</v>
       </c>
       <c r="C13" s="29" t="s">
@@ -5901,14 +6741,14 @@
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="3" t="str">
-        <f t="shared" ref="E13:E22" si="2">B13&amp;",  "&amp;A13</f>
+        <f t="shared" ref="E13:E22" si="3">B13&amp;",  "&amp;A13</f>
         <v>Kit Name: ,  b25fcd6e-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="I13" t="s">
         <v>243</v>
       </c>
       <c r="J13" s="14"/>
-      <c r="K13" s="70"/>
+      <c r="K13" s="66"/>
       <c r="M13" t="s">
         <v>203</v>
       </c>
@@ -5922,7 +6762,7 @@
       <c r="Q13" s="38">
         <v>1</v>
       </c>
-      <c r="R13" s="84"/>
+      <c r="R13" s="80"/>
       <c r="T13" t="s">
         <v>163</v>
       </c>
@@ -5933,7 +6773,7 @@
         <v>138</v>
       </c>
       <c r="W13" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HP,  b25ee20a-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="X13" s="27"/>
@@ -5942,7 +6782,7 @@
       <c r="A14" t="s">
         <v>264</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="62" t="s">
         <v>703</v>
       </c>
       <c r="C14" s="29" t="s">
@@ -5950,7 +6790,7 @@
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Lot No:,  b25fcecc-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="I14" t="s">
@@ -5971,7 +6811,7 @@
       <c r="Q14" s="38">
         <v>2</v>
       </c>
-      <c r="R14" s="84"/>
+      <c r="R14" s="80"/>
       <c r="T14" t="s">
         <v>164</v>
       </c>
@@ -5982,7 +6822,7 @@
         <v>137</v>
       </c>
       <c r="W14" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NP,  b25ee476-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="X14" s="27"/>
@@ -5991,7 +6831,7 @@
       <c r="A15" t="s">
         <v>265</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="62" t="s">
         <v>704</v>
       </c>
       <c r="C15" s="29" t="s">
@@ -5999,7 +6839,7 @@
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Expiry Date:,  b25fd1a6-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="I15" t="s">
@@ -6020,7 +6860,7 @@
       <c r="Q15" s="38">
         <v>3</v>
       </c>
-      <c r="R15" s="84"/>
+      <c r="R15" s="80"/>
       <c r="T15" t="s">
         <v>165</v>
       </c>
@@ -6031,7 +6871,7 @@
         <v>136</v>
       </c>
       <c r="W15" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VI,  b25ee642-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="X15" s="27"/>
@@ -6040,17 +6880,17 @@
       <c r="A16" t="s">
         <v>266</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="62" t="s">
         <v>705</v>
       </c>
       <c r="C16" s="29" t="s">
         <v>99</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E16" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Test Result:,  b25fd322-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="I16" t="s">
@@ -6071,7 +6911,7 @@
       <c r="Q16" s="38">
         <v>4</v>
       </c>
-      <c r="R16" s="84"/>
+      <c r="R16" s="80"/>
       <c r="T16" t="s">
         <v>166</v>
       </c>
@@ -6082,7 +6922,7 @@
         <v>135</v>
       </c>
       <c r="W16" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VS,  b25ee930-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="X16" s="27"/>
@@ -6091,17 +6931,17 @@
       <c r="A17" t="s">
         <v>267</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="62" t="s">
         <v>64</v>
       </c>
       <c r="C17" s="29" t="s">
         <v>99</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E17" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Final Result,  b25fd62e-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="I17" t="s">
@@ -6122,7 +6962,7 @@
       <c r="Q17" s="38">
         <v>5</v>
       </c>
-      <c r="R17" s="84"/>
+      <c r="R17" s="80"/>
       <c r="T17" t="s">
         <v>167</v>
       </c>
@@ -6133,7 +6973,7 @@
         <v>134</v>
       </c>
       <c r="W17" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HB,  b25eeab6-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="X17" s="27"/>
@@ -6142,17 +6982,17 @@
       <c r="A18" t="s">
         <v>268</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="62" t="s">
         <v>66</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>99</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>710</v>
+        <v>665</v>
       </c>
       <c r="E18" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Final Result Given?,  b25fd78c-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="I18" t="s">
@@ -6172,7 +7012,7 @@
       <c r="Q18" s="38">
         <v>6</v>
       </c>
-      <c r="R18" s="84"/>
+      <c r="R18" s="80"/>
       <c r="T18" t="s">
         <v>168</v>
       </c>
@@ -6183,7 +7023,7 @@
         <v>133</v>
       </c>
       <c r="W18" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>MO,  b25eed36-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="X18" s="27"/>
@@ -6192,17 +7032,17 @@
       <c r="A19" t="s">
         <v>269</v>
       </c>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="62" t="s">
         <v>69</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>99</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E19" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Couple Discordant,  b25fd94e-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="I19" t="s">
@@ -6222,7 +7062,7 @@
       <c r="Q19" s="38">
         <v>1</v>
       </c>
-      <c r="R19" s="84"/>
+      <c r="R19" s="80"/>
       <c r="T19" t="s">
         <v>169</v>
       </c>
@@ -6233,7 +7073,7 @@
         <v>74</v>
       </c>
       <c r="W19" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Pr TB,  b25eefca-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="X19" s="27"/>
@@ -6249,10 +7089,10 @@
         <v>99</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>710</v>
+        <v>665</v>
       </c>
       <c r="E20" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Linked to Care?,  b25fdb9c-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="I20" t="s">
@@ -6272,7 +7112,7 @@
       <c r="Q20" s="38">
         <v>2</v>
       </c>
-      <c r="R20" s="84"/>
+      <c r="R20" s="80"/>
       <c r="T20" t="s">
         <v>170</v>
       </c>
@@ -6283,7 +7123,7 @@
         <v>75</v>
       </c>
       <c r="W20" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NS,  b25ef128-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="X20" s="27"/>
@@ -6293,14 +7133,14 @@
         <v>271</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C21" s="29" t="s">
         <v>102</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CCC#,  b25fddea-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="I21" t="s">
@@ -6320,7 +7160,7 @@
       <c r="Q21" s="38">
         <v>3</v>
       </c>
-      <c r="R21" s="84"/>
+      <c r="R21" s="80"/>
       <c r="T21" t="s">
         <v>171</v>
       </c>
@@ -6331,7 +7171,7 @@
         <v>76</v>
       </c>
       <c r="W21" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ND,  b25ef3d0-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="X21" s="27"/>
@@ -6340,7 +7180,7 @@
       <c r="A22" t="s">
         <v>272</v>
       </c>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="62" t="s">
         <v>778</v>
       </c>
       <c r="C22" s="29" t="s">
@@ -6348,7 +7188,7 @@
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Reason Result Not Given?,  b25fdf3e-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="I22" t="s">
@@ -6368,7 +7208,7 @@
       <c r="Q22" s="38">
         <v>4</v>
       </c>
-      <c r="R22" s="84"/>
+      <c r="R22" s="80"/>
       <c r="T22" t="s">
         <v>172</v>
       </c>
@@ -6379,7 +7219,7 @@
         <v>77</v>
       </c>
       <c r="W22" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TBRX,  b25ef63c-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="X22" s="27"/>
@@ -6393,27 +7233,27 @@
         <v>213</v>
       </c>
       <c r="N23" s="38" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="O23" s="38" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="P23" s="38"/>
       <c r="Q23" s="38">
         <v>1</v>
       </c>
-      <c r="R23" s="84"/>
+      <c r="R23" s="80"/>
       <c r="T23" t="s">
         <v>173</v>
       </c>
-      <c r="U23" s="72" t="s">
-        <v>711</v>
-      </c>
-      <c r="V23" s="66" t="s">
+      <c r="U23" s="68" t="s">
+        <v>710</v>
+      </c>
+      <c r="V23" s="62" t="s">
         <v>56</v>
       </c>
       <c r="W23" s="39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>H1,  b25ef7c2-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
@@ -6426,27 +7266,27 @@
         <v>214</v>
       </c>
       <c r="N24" s="38" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="O24" s="38" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="P24" s="38"/>
       <c r="Q24" s="38">
         <v>2</v>
       </c>
-      <c r="R24" s="84"/>
+      <c r="R24" s="80"/>
       <c r="T24" t="s">
         <v>174</v>
       </c>
-      <c r="U24" s="72" t="s">
-        <v>712</v>
-      </c>
-      <c r="V24" s="66" t="s">
+      <c r="U24" s="68" t="s">
+        <v>711</v>
+      </c>
+      <c r="V24" s="62" t="s">
         <v>61</v>
       </c>
       <c r="W24" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>H2,  b25ef90c-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
@@ -6458,28 +7298,28 @@
       <c r="M25" t="s">
         <v>215</v>
       </c>
-      <c r="N25" s="73" t="s">
+      <c r="N25" s="69" t="s">
+        <v>717</v>
+      </c>
+      <c r="O25" s="69" t="s">
         <v>718</v>
       </c>
-      <c r="O25" s="73" t="s">
-        <v>719</v>
-      </c>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="73">
+      <c r="P25" s="69"/>
+      <c r="Q25" s="69">
         <v>1</v>
       </c>
-      <c r="R25" s="84"/>
+      <c r="R25" s="80"/>
       <c r="T25" t="s">
         <v>175</v>
       </c>
-      <c r="U25" s="69" t="s">
+      <c r="U25" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="V25" s="69" t="s">
+      <c r="V25" s="65" t="s">
         <v>58</v>
       </c>
       <c r="W25" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>N,  b25efb78-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
@@ -6491,28 +7331,28 @@
       <c r="M26" t="s">
         <v>216</v>
       </c>
-      <c r="N26" s="73" t="s">
-        <v>718</v>
-      </c>
-      <c r="O26" s="73" t="s">
-        <v>720</v>
-      </c>
-      <c r="P26" s="73"/>
-      <c r="Q26" s="73">
+      <c r="N26" s="69" t="s">
+        <v>717</v>
+      </c>
+      <c r="O26" s="69" t="s">
+        <v>719</v>
+      </c>
+      <c r="P26" s="69"/>
+      <c r="Q26" s="69">
         <v>2</v>
       </c>
-      <c r="R26" s="84"/>
+      <c r="R26" s="80"/>
       <c r="T26" t="s">
         <v>176</v>
       </c>
-      <c r="U26" s="69" t="s">
+      <c r="U26" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="V26" s="69" t="s">
+      <c r="V26" s="65" t="s">
         <v>59</v>
       </c>
       <c r="W26" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>P,  b25efd8a-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
@@ -6524,28 +7364,28 @@
       <c r="M27" t="s">
         <v>217</v>
       </c>
-      <c r="N27" s="73" t="s">
-        <v>718</v>
-      </c>
-      <c r="O27" s="73" t="s">
-        <v>721</v>
-      </c>
-      <c r="P27" s="73"/>
-      <c r="Q27" s="73">
+      <c r="N27" s="69" t="s">
+        <v>717</v>
+      </c>
+      <c r="O27" s="69" t="s">
+        <v>720</v>
+      </c>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="69">
         <v>3</v>
       </c>
-      <c r="R27" s="84"/>
+      <c r="R27" s="80"/>
       <c r="T27" t="s">
         <v>177</v>
       </c>
-      <c r="U27" s="69" t="s">
+      <c r="U27" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="V27" s="69" t="s">
+      <c r="V27" s="65" t="s">
         <v>60</v>
       </c>
       <c r="W27" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>I,  b25f001e-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
@@ -6557,28 +7397,28 @@
       <c r="M28" t="s">
         <v>218</v>
       </c>
-      <c r="N28" s="73" t="s">
-        <v>723</v>
-      </c>
-      <c r="O28" s="73" t="s">
-        <v>719</v>
-      </c>
-      <c r="P28" s="73"/>
-      <c r="Q28" s="73">
+      <c r="N28" s="69" t="s">
+        <v>722</v>
+      </c>
+      <c r="O28" s="69" t="s">
+        <v>718</v>
+      </c>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="69">
         <v>1</v>
       </c>
-      <c r="R28" s="84"/>
+      <c r="R28" s="80"/>
       <c r="T28" t="s">
         <v>178</v>
       </c>
-      <c r="U28" s="69" t="s">
-        <v>724</v>
-      </c>
-      <c r="V28" s="69" t="s">
+      <c r="U28" s="65" t="s">
+        <v>723</v>
+      </c>
+      <c r="V28" s="65" t="s">
         <v>65</v>
       </c>
       <c r="W28" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Ic,  b25f017c-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
@@ -6590,17 +7430,17 @@
       <c r="M29" t="s">
         <v>219</v>
       </c>
-      <c r="N29" s="73" t="s">
-        <v>723</v>
-      </c>
-      <c r="O29" s="73" t="s">
-        <v>720</v>
-      </c>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="73">
+      <c r="N29" s="69" t="s">
+        <v>722</v>
+      </c>
+      <c r="O29" s="69" t="s">
+        <v>719</v>
+      </c>
+      <c r="P29" s="69"/>
+      <c r="Q29" s="69">
         <v>2</v>
       </c>
-      <c r="R29" s="84"/>
+      <c r="R29" s="80"/>
       <c r="T29" t="s">
         <v>179</v>
       </c>
@@ -6616,17 +7456,17 @@
       <c r="M30" t="s">
         <v>220</v>
       </c>
-      <c r="N30" s="73" t="s">
-        <v>723</v>
-      </c>
-      <c r="O30" s="73" t="s">
-        <v>725</v>
-      </c>
-      <c r="P30" s="73"/>
-      <c r="Q30" s="73">
+      <c r="N30" s="69" t="s">
+        <v>722</v>
+      </c>
+      <c r="O30" s="69" t="s">
+        <v>724</v>
+      </c>
+      <c r="P30" s="69"/>
+      <c r="Q30" s="69">
         <v>3</v>
       </c>
-      <c r="R30" s="84"/>
+      <c r="R30" s="80"/>
       <c r="T30" t="s">
         <v>180</v>
       </c>
@@ -6642,17 +7482,17 @@
       <c r="M31" t="s">
         <v>221</v>
       </c>
-      <c r="N31" s="73" t="s">
-        <v>727</v>
-      </c>
-      <c r="O31" s="74" t="s">
+      <c r="N31" s="69" t="s">
+        <v>726</v>
+      </c>
+      <c r="O31" s="70" t="s">
         <v>645</v>
       </c>
-      <c r="P31" s="73"/>
-      <c r="Q31" s="73">
+      <c r="P31" s="69"/>
+      <c r="Q31" s="69">
         <v>1</v>
       </c>
-      <c r="R31" s="84"/>
+      <c r="R31" s="80"/>
       <c r="T31" t="s">
         <v>181</v>
       </c>
@@ -6668,17 +7508,17 @@
       <c r="M32" t="s">
         <v>222</v>
       </c>
-      <c r="N32" s="73" t="s">
-        <v>727</v>
-      </c>
-      <c r="O32" s="74" t="s">
+      <c r="N32" s="69" t="s">
+        <v>726</v>
+      </c>
+      <c r="O32" s="70" t="s">
         <v>646</v>
       </c>
-      <c r="P32" s="73"/>
-      <c r="Q32" s="73">
+      <c r="P32" s="69"/>
+      <c r="Q32" s="69">
         <v>2</v>
       </c>
-      <c r="R32" s="84"/>
+      <c r="R32" s="80"/>
       <c r="T32" t="s">
         <v>182</v>
       </c>
@@ -6693,17 +7533,17 @@
       <c r="M33" t="s">
         <v>223</v>
       </c>
-      <c r="N33" s="73" t="s">
-        <v>727</v>
-      </c>
-      <c r="O33" s="74" t="s">
+      <c r="N33" s="69" t="s">
+        <v>726</v>
+      </c>
+      <c r="O33" s="70" t="s">
         <v>647</v>
       </c>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="73">
+      <c r="P33" s="69"/>
+      <c r="Q33" s="69">
         <v>3</v>
       </c>
-      <c r="R33" s="84"/>
+      <c r="R33" s="80"/>
       <c r="T33" t="s">
         <v>183</v>
       </c>
@@ -6962,8 +7802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="53.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6982,37 +7822,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="77" t="s">
         <v>693</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="77" t="s">
+        <v>755</v>
+      </c>
+      <c r="E1" s="77" t="s">
         <v>756</v>
       </c>
-      <c r="E1" s="81" t="s">
+      <c r="F1" s="77" t="s">
         <v>757</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="G1" s="77" t="s">
         <v>758</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="H1" s="77" t="s">
         <v>759</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="I1" s="77" t="s">
         <v>760</v>
       </c>
-      <c r="I1" s="81" t="s">
+      <c r="J1" s="77" t="s">
         <v>761</v>
       </c>
-      <c r="J1" s="81" t="s">
+      <c r="K1" s="77" t="s">
         <v>762</v>
       </c>
-      <c r="K1" s="81" t="s">
-        <v>763</v>
-      </c>
-      <c r="L1" s="81" t="s">
+      <c r="L1" s="77" t="s">
         <v>694</v>
       </c>
     </row>
@@ -7024,22 +7864,22 @@
         <v>696</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E2" s="58"/>
       <c r="F2" s="58" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G2" s="58" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H2" s="58"/>
-      <c r="I2" s="82"/>
+      <c r="I2" s="78"/>
       <c r="J2" s="58" t="s">
         <v>685</v>
       </c>
       <c r="K2" s="58" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="L2" s="59">
         <v>0</v>
@@ -7053,10 +7893,10 @@
         <v>699</v>
       </c>
       <c r="D3" s="58" t="s">
+        <v>763</v>
+      </c>
+      <c r="F3" t="s">
         <v>764</v>
-      </c>
-      <c r="F3" t="s">
-        <v>765</v>
       </c>
       <c r="G3" s="58" t="s">
         <v>646</v>
@@ -7065,7 +7905,7 @@
         <v>685</v>
       </c>
       <c r="K3" s="58" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -7076,22 +7916,22 @@
         <v>434</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D4" s="58" t="s">
+        <v>763</v>
+      </c>
+      <c r="F4" t="s">
         <v>764</v>
       </c>
-      <c r="F4" t="s">
-        <v>765</v>
-      </c>
       <c r="G4" s="58" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J4" s="58" t="s">
         <v>685</v>
       </c>
       <c r="K4" s="58" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -7102,13 +7942,13 @@
         <v>435</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D5" s="58" t="s">
+        <v>763</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>764</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>765</v>
       </c>
       <c r="G5" s="58" t="s">
         <v>645</v>
@@ -7117,7 +7957,7 @@
         <v>685</v>
       </c>
       <c r="K5" s="58" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -7128,13 +7968,13 @@
         <v>436</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D6" s="58" t="s">
+        <v>763</v>
+      </c>
+      <c r="F6" t="s">
         <v>764</v>
-      </c>
-      <c r="F6" t="s">
-        <v>765</v>
       </c>
       <c r="G6" s="58" t="s">
         <v>646</v>
@@ -7580,7 +8420,7 @@
       <c r="E9" s="58"/>
       <c r="F9" s="58"/>
       <c r="G9" s="58" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H9" s="59">
         <v>0</v>
@@ -7602,7 +8442,7 @@
       <c r="E10" s="58"/>
       <c r="F10" s="58"/>
       <c r="G10" s="58" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H10" s="59">
         <v>0</v>
@@ -7612,19 +8452,19 @@
       <c r="A11" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="75" t="s">
         <v>683</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="C11" s="75" t="s">
         <v>685</v>
       </c>
-      <c r="D11" s="80">
+      <c r="D11" s="76">
         <v>0</v>
       </c>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
       <c r="G11" s="58" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H11" s="59">
         <v>0</v>
@@ -7634,19 +8474,19 @@
       <c r="A12" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="75" t="s">
         <v>683</v>
       </c>
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="75" t="s">
         <v>685</v>
       </c>
-      <c r="D12" s="80">
+      <c r="D12" s="76">
         <v>0</v>
       </c>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
       <c r="G12" s="58" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H12" s="59">
         <v>0</v>
@@ -7656,19 +8496,19 @@
       <c r="A13" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="75" t="s">
         <v>683</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="75" t="s">
         <v>685</v>
       </c>
-      <c r="D13" s="80">
+      <c r="D13" s="76">
         <v>0</v>
       </c>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
       <c r="G13" s="58" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H13" s="59">
         <v>0</v>
@@ -7678,19 +8518,19 @@
       <c r="A14" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="75" t="s">
         <v>683</v>
       </c>
-      <c r="C14" s="79" t="s">
+      <c r="C14" s="75" t="s">
         <v>685</v>
       </c>
-      <c r="D14" s="80">
+      <c r="D14" s="76">
         <v>0</v>
       </c>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
       <c r="G14" s="58" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H14" s="59">
         <v>0</v>
@@ -7700,19 +8540,19 @@
       <c r="A15" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="75" t="s">
         <v>683</v>
       </c>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="75" t="s">
         <v>685</v>
       </c>
-      <c r="D15" s="80">
+      <c r="D15" s="76">
         <v>0</v>
       </c>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
       <c r="G15" s="58" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H15" s="59">
         <v>0</v>
@@ -7722,19 +8562,19 @@
       <c r="A16" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="75" t="s">
         <v>683</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="75" t="s">
         <v>685</v>
       </c>
-      <c r="D16" s="80">
+      <c r="D16" s="76">
         <v>0</v>
       </c>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
       <c r="G16" s="58" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H16" s="59">
         <v>0</v>
@@ -7744,19 +8584,19 @@
       <c r="A17" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="75" t="s">
         <v>683</v>
       </c>
-      <c r="C17" s="79" t="s">
+      <c r="C17" s="75" t="s">
         <v>685</v>
       </c>
-      <c r="D17" s="80">
+      <c r="D17" s="76">
         <v>0</v>
       </c>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
       <c r="G17" s="58" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H17" s="59">
         <v>0</v>
@@ -7766,19 +8606,19 @@
       <c r="A18" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="75" t="s">
         <v>683</v>
       </c>
-      <c r="C18" s="79" t="s">
+      <c r="C18" s="75" t="s">
         <v>685</v>
       </c>
-      <c r="D18" s="80">
+      <c r="D18" s="76">
         <v>0</v>
       </c>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
       <c r="G18" s="58" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H18" s="59">
         <v>0</v>
@@ -7788,19 +8628,19 @@
       <c r="A19" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="75" t="s">
         <v>683</v>
       </c>
-      <c r="C19" s="79" t="s">
+      <c r="C19" s="75" t="s">
         <v>685</v>
       </c>
-      <c r="D19" s="80">
+      <c r="D19" s="76">
         <v>0</v>
       </c>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
       <c r="G19" s="58" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H19" s="59">
         <v>0</v>
@@ -7810,19 +8650,19 @@
       <c r="A20" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="75" t="s">
         <v>683</v>
       </c>
-      <c r="C20" s="79" t="s">
+      <c r="C20" s="75" t="s">
         <v>685</v>
       </c>
-      <c r="D20" s="80">
+      <c r="D20" s="76">
         <v>0</v>
       </c>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
       <c r="G20" s="58" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H20" s="59">
         <v>0</v>
@@ -7832,19 +8672,19 @@
       <c r="A21" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="75" t="s">
         <v>683</v>
       </c>
-      <c r="C21" s="79" t="s">
+      <c r="C21" s="75" t="s">
         <v>685</v>
       </c>
-      <c r="D21" s="80">
+      <c r="D21" s="76">
         <v>0</v>
       </c>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
       <c r="G21" s="58" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H21" s="59">
         <v>0</v>
@@ -7854,19 +8694,19 @@
       <c r="A22" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="75" t="s">
         <v>683</v>
       </c>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="75" t="s">
         <v>685</v>
       </c>
-      <c r="D22" s="80">
+      <c r="D22" s="76">
         <v>0</v>
       </c>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
       <c r="G22" s="58" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H22" s="59">
         <v>0</v>
@@ -7876,19 +8716,19 @@
       <c r="A23" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="75" t="s">
         <v>683</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="75" t="s">
         <v>685</v>
       </c>
-      <c r="D23" s="80">
+      <c r="D23" s="76">
         <v>0</v>
       </c>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
       <c r="G23" s="58" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H23" s="59">
         <v>0</v>
@@ -7898,19 +8738,19 @@
       <c r="A24" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="B24" s="79" t="s">
+      <c r="B24" s="75" t="s">
         <v>683</v>
       </c>
-      <c r="C24" s="79" t="s">
+      <c r="C24" s="75" t="s">
         <v>685</v>
       </c>
-      <c r="D24" s="80">
+      <c r="D24" s="76">
         <v>0</v>
       </c>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
       <c r="G24" s="58" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H24" s="59">
         <v>0</v>
@@ -7920,19 +8760,19 @@
       <c r="A25" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="75" t="s">
         <v>683</v>
       </c>
-      <c r="C25" s="79" t="s">
+      <c r="C25" s="75" t="s">
         <v>685</v>
       </c>
-      <c r="D25" s="80">
+      <c r="D25" s="76">
         <v>0</v>
       </c>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
       <c r="G25" s="58" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H25" s="59">
         <v>0</v>
@@ -7942,19 +8782,19 @@
       <c r="A26" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="B26" s="79" t="s">
+      <c r="B26" s="75" t="s">
         <v>683</v>
       </c>
-      <c r="C26" s="79" t="s">
+      <c r="C26" s="75" t="s">
         <v>685</v>
       </c>
-      <c r="D26" s="80">
+      <c r="D26" s="76">
         <v>0</v>
       </c>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
       <c r="G26" s="58" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H26" s="59">
         <v>0</v>
@@ -8195,7 +9035,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="75.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8209,46 +9049,46 @@
     <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="55.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="60.140625" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="81" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="81" t="s">
+        <v>755</v>
+      </c>
+      <c r="D1" s="81" t="s">
+        <v>757</v>
+      </c>
+      <c r="E1" s="81" t="s">
+        <v>758</v>
+      </c>
+      <c r="F1" s="81" t="s">
+        <v>759</v>
+      </c>
+      <c r="G1" s="81" t="s">
+        <v>760</v>
+      </c>
+      <c r="H1" s="81" t="s">
         <v>756</v>
       </c>
-      <c r="D1" s="85" t="s">
-        <v>758</v>
-      </c>
-      <c r="E1" s="85" t="s">
-        <v>759</v>
-      </c>
-      <c r="F1" s="85" t="s">
-        <v>760</v>
-      </c>
-      <c r="G1" s="85" t="s">
+      <c r="I1" s="81" t="s">
         <v>761</v>
       </c>
-      <c r="H1" s="85" t="s">
-        <v>757</v>
-      </c>
-      <c r="I1" s="85" t="s">
-        <v>762</v>
-      </c>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="K1" s="85" t="s">
-        <v>774</v>
-      </c>
-      <c r="L1" s="85" t="s">
+      <c r="K1" s="81" t="s">
+        <v>773</v>
+      </c>
+      <c r="L1" s="81" t="s">
         <v>694</v>
       </c>
     </row>
@@ -8260,16 +9100,16 @@
         <v>700</v>
       </c>
       <c r="C2" t="s">
+        <v>763</v>
+      </c>
+      <c r="D2" t="s">
         <v>764</v>
-      </c>
-      <c r="D2" t="s">
-        <v>765</v>
       </c>
       <c r="E2" s="58" t="s">
         <v>653</v>
       </c>
       <c r="H2" s="58" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I2" t="s">
         <v>776</v>
@@ -8289,16 +9129,16 @@
         <v>700</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>764</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>765</v>
       </c>
       <c r="E3" s="58" t="s">
         <v>653</v>
       </c>
       <c r="H3" s="58" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>775</v>
@@ -8321,18 +9161,18 @@
         <v>777</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>765</v>
-      </c>
       <c r="E4" s="58" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="58" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>775</v>
@@ -8341,7 +9181,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="58" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="L4" s="3">
         <v>0</v>
@@ -8355,18 +9195,18 @@
         <v>777</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>765</v>
-      </c>
       <c r="E5" s="58" t="s">
-        <v>653</v>
+        <v>718</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="58" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>776</v>
@@ -8383,31 +9223,135 @@
       <c r="A6" t="s">
         <v>476</v>
       </c>
+      <c r="B6" s="58" t="s">
+        <v>700</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="58" t="s">
+        <v>653</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>477</v>
       </c>
+      <c r="B7" s="58" t="s">
+        <v>700</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="58" t="s">
+        <v>654</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>478</v>
       </c>
+      <c r="B8" s="58" t="s">
+        <v>700</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2</v>
+      </c>
+      <c r="K8" s="58"/>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>479</v>
       </c>
+      <c r="B9" s="58" t="s">
+        <v>700</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2</v>
+      </c>
+      <c r="K9" s="58"/>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>480</v>
       </c>
+      <c r="B10" s="58"/>
+      <c r="C10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="3"/>
+      <c r="K10" s="58"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>481</v>
       </c>
+      <c r="I11" s="3"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -8468,13 +9412,13 @@
           <x14:formula1>
             <xm:f>Configs!$O$3:$O$33</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K4 E2:E5</xm:sqref>
+          <xm:sqref>K3:K4 K6:K10 E2:E9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>HTS!$H$2:$H$25</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H5 B2:B5</xm:sqref>
+          <xm:sqref>H2:H10 B2:B10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8483,6 +9427,366 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="61.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="87" t="s">
+        <v>755</v>
+      </c>
+      <c r="C1" s="87" t="s">
+        <v>787</v>
+      </c>
+      <c r="D1" s="87" t="s">
+        <v>788</v>
+      </c>
+      <c r="E1" s="87" t="s">
+        <v>789</v>
+      </c>
+      <c r="F1" s="87" t="s">
+        <v>757</v>
+      </c>
+      <c r="G1" s="87" t="s">
+        <v>758</v>
+      </c>
+      <c r="H1" s="87" t="s">
+        <v>759</v>
+      </c>
+      <c r="I1" s="87" t="s">
+        <v>760</v>
+      </c>
+      <c r="J1" s="87" t="s">
+        <v>761</v>
+      </c>
+      <c r="K1" s="87" t="s">
+        <v>773</v>
+      </c>
+      <c r="L1" s="87" t="s">
+        <v>783</v>
+      </c>
+      <c r="M1" s="87" t="s">
+        <v>693</v>
+      </c>
+      <c r="N1" s="87" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>774</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58" t="s">
+        <v>790</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="58"/>
+      <c r="I2" s="78">
+        <v>1</v>
+      </c>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58" t="s">
+        <v>329</v>
+      </c>
+      <c r="N2" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>774</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>786</v>
+      </c>
+      <c r="D3" s="60"/>
+      <c r="E3" s="58" t="s">
+        <v>327</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>790</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="60"/>
+      <c r="I3" s="82">
+        <v>1</v>
+      </c>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="58" t="s">
+        <v>329</v>
+      </c>
+      <c r="N3" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>774</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>786</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>327</v>
+      </c>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58" t="s">
+        <v>764</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="H4" s="58"/>
+      <c r="I4" s="78">
+        <v>2</v>
+      </c>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58" t="s">
+        <v>329</v>
+      </c>
+      <c r="N4" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>774</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>786</v>
+      </c>
+      <c r="D5" s="60"/>
+      <c r="E5" s="58" t="s">
+        <v>327</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>764</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="H5" s="60"/>
+      <c r="I5" s="82">
+        <v>2</v>
+      </c>
+      <c r="J5" s="60" t="s">
+        <v>775</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="M5" s="58" t="s">
+        <v>329</v>
+      </c>
+      <c r="N5" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>496</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>774</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>786</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>327</v>
+      </c>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58" t="s">
+        <v>764</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="H6" s="58"/>
+      <c r="I6" s="78">
+        <v>3</v>
+      </c>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58" t="s">
+        <v>329</v>
+      </c>
+      <c r="N6" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>497</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>774</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>786</v>
+      </c>
+      <c r="D7" s="60"/>
+      <c r="E7" s="58" t="s">
+        <v>327</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>764</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="H7" s="60"/>
+      <c r="I7" s="82">
+        <v>3</v>
+      </c>
+      <c r="J7" s="60" t="s">
+        <v>775</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="M7" s="58" t="s">
+        <v>329</v>
+      </c>
+      <c r="N7" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>502</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>HTS!$H$2:$H$25</xm:f>
+          </x14:formula1>
+          <xm:sqref>D4 D2 D6 E7 E3 E5 M2:M7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Configs!$O$3:$O$33</xm:f>
+          </x14:formula1>
+          <xm:sqref>K5:L5 K7:L7 G2:G7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -8508,1020 +9812,168 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="62" t="s">
         <v>702</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="63" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="66" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="62" t="s">
         <v>703</v>
       </c>
-      <c r="C3" s="67"/>
+      <c r="C3" s="63"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="62" t="s">
         <v>704</v>
       </c>
-      <c r="C4" s="67"/>
+      <c r="C4" s="63"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66" t="s">
+      <c r="A5" s="62"/>
+      <c r="B5" s="62" t="s">
         <v>705</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="65" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="66"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="69" t="s">
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="65" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="66"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="69" t="s">
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="65" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="62" t="s">
         <v>706</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="63" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="66"/>
-      <c r="B9" s="66" t="s">
+      <c r="A9" s="62"/>
+      <c r="B9" s="62" t="s">
         <v>703</v>
       </c>
-      <c r="C9" s="67"/>
+      <c r="C9" s="63"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
-      <c r="B10" s="66" t="s">
+      <c r="A10" s="62"/>
+      <c r="B10" s="62" t="s">
         <v>704</v>
       </c>
-      <c r="C10" s="67"/>
+      <c r="C10" s="63"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
-      <c r="B11" s="66" t="s">
+      <c r="A11" s="62"/>
+      <c r="B11" s="62" t="s">
         <v>707</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="65" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="69" t="s">
+      <c r="A12" s="62"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="65" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="66"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="69" t="s">
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="65" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="66"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="69" t="s">
+      <c r="A14" s="62"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="65" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="69" t="s">
+      <c r="B15" s="62"/>
+      <c r="C15" s="65" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="68"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="69" t="s">
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="65" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="68"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="69" t="s">
+      <c r="A17" s="64"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="65" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="69" t="s">
+      <c r="B18" s="64"/>
+      <c r="C18" s="65" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="68"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="69" t="s">
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="65" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="69" t="s">
+      <c r="B20" s="62"/>
+      <c r="C20" s="65" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="68"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="69" t="s">
+      <c r="A21" s="64"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="65" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="68"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="69" t="s">
+      <c r="A22" s="64"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="65" t="s">
         <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" activeCellId="1" sqref="A2 A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A61:A213"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:A60"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>644</v>
       </c>
     </row>
   </sheetData>

--- a/Template/LiveHTS.xlsx
+++ b/Template/LiveHTS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34725" windowHeight="19035" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34725" windowHeight="19035" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Profile" sheetId="9" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="794">
   <si>
     <t>Ever Tested?</t>
   </si>
@@ -3094,6 +3094,9 @@
   </si>
   <si>
     <t>25ed04e-852f-11e7-bb31-be2e44b06b34</t>
+  </si>
+  <si>
+    <t>Allow</t>
   </si>
 </sst>
 </file>
@@ -3652,6 +3655,9 @@
     <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3663,9 +3669,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3987,7 +3990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:A15"/>
     </sheetView>
   </sheetViews>
@@ -5039,7 +5042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -5991,7 +5994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -6030,34 +6033,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="83"/>
+      <c r="B1" s="84"/>
       <c r="C1" s="53"/>
       <c r="D1" s="21"/>
       <c r="G1" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="83" t="s">
+      <c r="I1" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="83"/>
+      <c r="J1" s="84"/>
       <c r="K1" s="21"/>
-      <c r="M1" s="84" t="s">
+      <c r="M1" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="N1" s="85"/>
-      <c r="T1" s="83" t="s">
+      <c r="N1" s="86"/>
+      <c r="T1" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="21"/>
-      <c r="Y1" s="86" t="s">
+      <c r="Y1" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="Z1" s="86"/>
+      <c r="Z1" s="87"/>
       <c r="AC1" t="s">
         <v>681</v>
       </c>
@@ -9034,8 +9037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="75.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9158,7 +9161,7 @@
         <v>474</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>777</v>
+        <v>700</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>763</v>
@@ -9167,22 +9170,20 @@
         <v>764</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>718</v>
+        <v>654</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="58" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>775</v>
+        <v>793</v>
       </c>
       <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4" s="58" t="s">
-        <v>718</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="K4" s="3"/>
       <c r="L4" s="3">
         <v>0</v>
       </c>
@@ -9209,12 +9210,14 @@
         <v>747</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="J5" s="3">
-        <v>2</v>
-      </c>
-      <c r="K5" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="58" t="s">
+        <v>718</v>
+      </c>
       <c r="L5" s="3">
         <v>0</v>
       </c>
@@ -9224,27 +9227,29 @@
         <v>476</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>700</v>
+        <v>777</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="3" t="s">
-        <v>784</v>
-      </c>
+        <v>763</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>718</v>
+      </c>
+      <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="58"/>
+      <c r="H6" s="58" t="s">
+        <v>747</v>
+      </c>
       <c r="I6" s="3" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="J6" s="3">
-        <v>1</v>
-      </c>
-      <c r="K6" s="58" t="s">
-        <v>653</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K6" s="3"/>
       <c r="L6" s="3">
         <v>0</v>
       </c>
@@ -9254,27 +9259,29 @@
         <v>477</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>700</v>
+        <v>777</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="3" t="s">
-        <v>785</v>
-      </c>
+        <v>763</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>719</v>
+      </c>
+      <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="58"/>
+      <c r="H7" s="58" t="s">
+        <v>747</v>
+      </c>
       <c r="I7" s="3" t="s">
-        <v>775</v>
+        <v>793</v>
       </c>
       <c r="J7" s="3">
-        <v>1</v>
-      </c>
-      <c r="K7" s="58" t="s">
-        <v>654</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="K7" s="3"/>
       <c r="L7" s="3">
         <v>0</v>
       </c>
@@ -9297,12 +9304,14 @@
       <c r="G8" s="3"/>
       <c r="H8" s="58"/>
       <c r="I8" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="J8" s="3">
-        <v>2</v>
-      </c>
-      <c r="K8" s="58"/>
+        <v>1</v>
+      </c>
+      <c r="K8" s="58" t="s">
+        <v>653</v>
+      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
@@ -9325,12 +9334,14 @@
       <c r="G9" s="3"/>
       <c r="H9" s="58"/>
       <c r="I9" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="J9" s="3">
-        <v>2</v>
-      </c>
-      <c r="K9" s="58"/>
+        <v>1</v>
+      </c>
+      <c r="K9" s="58" t="s">
+        <v>654</v>
+      </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
@@ -9339,19 +9350,57 @@
       <c r="A10" t="s">
         <v>480</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="B10" s="58" t="s">
+        <v>700</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="G10" s="3"/>
       <c r="H10" s="58"/>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2</v>
+      </c>
       <c r="K10" s="58"/>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>481</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="B11" s="58" t="s">
+        <v>700</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J11" s="3">
+        <v>2</v>
+      </c>
+      <c r="K11" s="58"/>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -9412,13 +9461,13 @@
           <x14:formula1>
             <xm:f>Configs!$O$3:$O$33</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K4 K6:K10 E2:E9</xm:sqref>
+          <xm:sqref>K3 K8:K11 K5 E8:E11 E2:E7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>HTS!$H$2:$H$25</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H10 B2:B10</xm:sqref>
+          <xm:sqref>H2:H7 B8:B11 B2:B7 H8:H11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9452,46 +9501,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="83" t="s">
         <v>755</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="83" t="s">
         <v>787</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="83" t="s">
         <v>788</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="83" t="s">
         <v>789</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="83" t="s">
         <v>757</v>
       </c>
-      <c r="G1" s="87" t="s">
+      <c r="G1" s="83" t="s">
         <v>758</v>
       </c>
-      <c r="H1" s="87" t="s">
+      <c r="H1" s="83" t="s">
         <v>759</v>
       </c>
-      <c r="I1" s="87" t="s">
+      <c r="I1" s="83" t="s">
         <v>760</v>
       </c>
-      <c r="J1" s="87" t="s">
+      <c r="J1" s="83" t="s">
         <v>761</v>
       </c>
-      <c r="K1" s="87" t="s">
+      <c r="K1" s="83" t="s">
         <v>773</v>
       </c>
-      <c r="L1" s="87" t="s">
+      <c r="L1" s="83" t="s">
         <v>783</v>
       </c>
-      <c r="M1" s="87" t="s">
+      <c r="M1" s="83" t="s">
         <v>693</v>
       </c>
-      <c r="N1" s="87" t="s">
+      <c r="N1" s="83" t="s">
         <v>694</v>
       </c>
     </row>

--- a/Template/LiveHTS.xlsx
+++ b/Template/LiveHTS.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="794">
   <si>
     <t>Ever Tested?</t>
   </si>
@@ -9035,10 +9035,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="75.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9057,7 +9057,7 @@
     <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="81" t="s">
         <v>103</v>
       </c>
@@ -9095,36 +9095,39 @@
         <v>694</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>472</v>
       </c>
       <c r="B2" s="58" t="s">
         <v>700</v>
       </c>
-      <c r="C2" t="s">
-        <v>763</v>
-      </c>
-      <c r="D2" t="s">
-        <v>764</v>
-      </c>
-      <c r="E2" s="58" t="s">
+      <c r="C2" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="58" t="s">
+        <v>700</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+      <c r="K2" s="58" t="s">
         <v>653</v>
       </c>
-      <c r="H2" s="58" t="s">
-        <v>749</v>
-      </c>
-      <c r="I2" t="s">
-        <v>776</v>
-      </c>
-      <c r="J2" s="3">
-        <v>2</v>
-      </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>473</v>
       </c>
@@ -9132,13 +9135,11 @@
         <v>700</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="E3" s="58" t="s">
-        <v>653</v>
+        <v>774</v>
+      </c>
+      <c r="E3" s="58"/>
+      <c r="F3" s="3" t="s">
+        <v>784</v>
       </c>
       <c r="H3" s="58" t="s">
         <v>749</v>
@@ -9147,7 +9148,7 @@
         <v>775</v>
       </c>
       <c r="J3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" s="58" t="s">
         <v>647</v>
@@ -9156,7 +9157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>474</v>
       </c>
@@ -9164,129 +9165,122 @@
         <v>700</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>654</v>
-      </c>
-      <c r="F4" s="3"/>
+        <v>774</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="3" t="s">
+        <v>784</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="58" t="s">
         <v>749</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>793</v>
+        <v>776</v>
       </c>
       <c r="J4" s="3">
-        <v>3</v>
-      </c>
-      <c r="K4" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="K4" s="58"/>
       <c r="L4" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>475</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>777</v>
+        <v>700</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="E5" s="58" t="s">
-        <v>718</v>
-      </c>
-      <c r="F5" s="3"/>
+        <v>774</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="3" t="s">
+        <v>784</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="58" t="s">
-        <v>747</v>
+        <v>700</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="58" t="s">
-        <v>718</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K5" s="58"/>
       <c r="L5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>476</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>777</v>
+        <v>700</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="E6" s="58" t="s">
-        <v>718</v>
-      </c>
-      <c r="F6" s="3"/>
+        <v>774</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="3" t="s">
+        <v>785</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="58" t="s">
-        <v>747</v>
+        <v>700</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="J6" s="3">
-        <v>2</v>
-      </c>
-      <c r="K6" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="58" t="s">
+        <v>654</v>
+      </c>
       <c r="L6" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>477</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>777</v>
+        <v>700</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="E7" s="58" t="s">
-        <v>719</v>
-      </c>
-      <c r="F7" s="3"/>
+        <v>774</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="3" t="s">
+        <v>785</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="58" t="s">
-        <v>747</v>
+        <v>700</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>793</v>
+        <v>776</v>
       </c>
       <c r="J7" s="3">
-        <v>3</v>
-      </c>
-      <c r="K7" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="K7" s="58"/>
       <c r="L7" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>478</v>
       </c>
@@ -9299,40 +9293,44 @@
       <c r="D8" s="3"/>
       <c r="E8" s="58"/>
       <c r="F8" s="3" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="58"/>
+      <c r="H8" s="58" t="s">
+        <v>749</v>
+      </c>
       <c r="I8" s="3" t="s">
-        <v>775</v>
+        <v>793</v>
       </c>
       <c r="J8" s="3">
-        <v>1</v>
-      </c>
-      <c r="K8" s="58" t="s">
-        <v>653</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="K8" s="58"/>
       <c r="L8" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>479</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>700</v>
+        <v>777</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="3" t="s">
-        <v>785</v>
-      </c>
+        <v>763</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>718</v>
+      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="58"/>
+      <c r="H9" s="58" t="s">
+        <v>747</v>
+      </c>
       <c r="I9" s="3" t="s">
         <v>775</v>
       </c>
@@ -9340,89 +9338,97 @@
         <v>1</v>
       </c>
       <c r="K9" s="58" t="s">
-        <v>654</v>
-      </c>
-      <c r="L9" s="3">
+        <v>718</v>
+      </c>
+      <c r="L9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>480</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>700</v>
+        <v>777</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="3" t="s">
-        <v>784</v>
-      </c>
+        <v>763</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>718</v>
+      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="58"/>
+      <c r="H10" s="58" t="s">
+        <v>747</v>
+      </c>
       <c r="I10" s="3" t="s">
         <v>776</v>
       </c>
       <c r="J10" s="3">
         <v>2</v>
       </c>
-      <c r="K10" s="58"/>
+      <c r="K10" s="3"/>
       <c r="L10" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>481</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>700</v>
+        <v>777</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="3" t="s">
-        <v>785</v>
-      </c>
+        <v>763</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>719</v>
+      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="58"/>
+      <c r="H11" s="58" t="s">
+        <v>747</v>
+      </c>
       <c r="I11" s="3" t="s">
-        <v>776</v>
+        <v>793</v>
       </c>
       <c r="J11" s="3">
-        <v>2</v>
-      </c>
-      <c r="K11" s="58"/>
+        <v>3</v>
+      </c>
+      <c r="K11" s="3"/>
       <c r="L11" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>486</v>
       </c>
@@ -9461,13 +9467,13 @@
           <x14:formula1>
             <xm:f>Configs!$O$3:$O$33</xm:f>
           </x14:formula1>
-          <xm:sqref>K3 K8:K11 K5 E8:E11 E2:E7</xm:sqref>
+          <xm:sqref>E2:E11 K2:K9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>HTS!$H$2:$H$25</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H7 B8:B11 B2:B7 H8:H11</xm:sqref>
+          <xm:sqref>B2:B11 H2:H11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Template/LiveHTS.xlsx
+++ b/Template/LiveHTS.xlsx
@@ -9038,7 +9038,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="75.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9485,24 +9485,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="61.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9511,40 +9511,40 @@
         <v>103</v>
       </c>
       <c r="B1" s="83" t="s">
+        <v>693</v>
+      </c>
+      <c r="C1" s="83" t="s">
         <v>755</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="D1" s="83" t="s">
         <v>787</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="E1" s="83" t="s">
         <v>788</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="F1" s="83" t="s">
         <v>789</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="G1" s="83" t="s">
         <v>757</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="H1" s="83" t="s">
         <v>758</v>
       </c>
-      <c r="H1" s="83" t="s">
+      <c r="I1" s="83" t="s">
         <v>759</v>
       </c>
-      <c r="I1" s="83" t="s">
+      <c r="J1" s="83" t="s">
         <v>760</v>
       </c>
-      <c r="J1" s="83" t="s">
+      <c r="K1" s="83" t="s">
         <v>761</v>
       </c>
-      <c r="K1" s="83" t="s">
+      <c r="L1" s="83" t="s">
         <v>773</v>
       </c>
-      <c r="L1" s="83" t="s">
+      <c r="M1" s="83" t="s">
         <v>783</v>
-      </c>
-      <c r="M1" s="83" t="s">
-        <v>693</v>
       </c>
       <c r="N1" s="83" t="s">
         <v>694</v>
@@ -9555,31 +9555,31 @@
         <v>492</v>
       </c>
       <c r="B2" s="58" t="s">
+        <v>749</v>
+      </c>
+      <c r="C2" s="58" t="s">
         <v>774</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="D2" s="58" t="s">
         <v>786</v>
       </c>
-      <c r="D2" s="58" t="s">
-        <v>327</v>
-      </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58" t="s">
+      <c r="E2" s="58" t="s">
+        <v>747</v>
+      </c>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58" t="s">
         <v>790</v>
       </c>
-      <c r="G2" s="58" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="78">
+      <c r="H2" s="58" t="s">
+        <v>724</v>
+      </c>
+      <c r="I2" s="58"/>
+      <c r="J2" s="78">
         <v>1</v>
       </c>
-      <c r="J2" s="58"/>
       <c r="K2" s="58"/>
       <c r="L2" s="58"/>
-      <c r="M2" s="58" t="s">
-        <v>329</v>
-      </c>
+      <c r="M2" s="58"/>
       <c r="N2" s="59">
         <v>0</v>
       </c>
@@ -9588,32 +9588,32 @@
       <c r="A3" t="s">
         <v>493</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="58" t="s">
+        <v>749</v>
+      </c>
+      <c r="C3" s="60" t="s">
         <v>774</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="D3" s="60" t="s">
         <v>786</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="58" t="s">
-        <v>327</v>
-      </c>
-      <c r="F3" s="60" t="s">
+      <c r="E3" s="60"/>
+      <c r="F3" s="58" t="s">
+        <v>747</v>
+      </c>
+      <c r="G3" s="60" t="s">
         <v>790</v>
       </c>
-      <c r="G3" s="58" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="82">
+      <c r="H3" s="58" t="s">
+        <v>724</v>
+      </c>
+      <c r="I3" s="60"/>
+      <c r="J3" s="82">
         <v>1</v>
       </c>
-      <c r="J3" s="60"/>
       <c r="K3" s="60"/>
       <c r="L3" s="60"/>
-      <c r="M3" s="58" t="s">
-        <v>329</v>
-      </c>
+      <c r="M3" s="60"/>
       <c r="N3" s="61">
         <v>0</v>
       </c>
@@ -9623,31 +9623,31 @@
         <v>494</v>
       </c>
       <c r="B4" s="58" t="s">
+        <v>749</v>
+      </c>
+      <c r="C4" s="58" t="s">
         <v>774</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="D4" s="58" t="s">
         <v>786</v>
       </c>
-      <c r="D4" s="58" t="s">
-        <v>327</v>
-      </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58" t="s">
+      <c r="E4" s="58" t="s">
+        <v>747</v>
+      </c>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58" t="s">
         <v>764</v>
       </c>
-      <c r="G4" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="H4" s="58"/>
-      <c r="I4" s="78">
-        <v>2</v>
-      </c>
-      <c r="J4" s="58"/>
+      <c r="H4" s="58" t="s">
+        <v>718</v>
+      </c>
+      <c r="I4" s="58"/>
+      <c r="J4" s="78">
+        <v>2.1</v>
+      </c>
       <c r="K4" s="58"/>
       <c r="L4" s="58"/>
-      <c r="M4" s="58" t="s">
-        <v>329</v>
-      </c>
+      <c r="M4" s="58"/>
       <c r="N4" s="59">
         <v>0</v>
       </c>
@@ -9656,37 +9656,37 @@
       <c r="A5" t="s">
         <v>495</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="58" t="s">
+        <v>749</v>
+      </c>
+      <c r="C5" s="60" t="s">
         <v>774</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="D5" s="60" t="s">
         <v>786</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="58" t="s">
-        <v>327</v>
-      </c>
-      <c r="F5" s="60" t="s">
+      <c r="E5" s="60"/>
+      <c r="F5" s="58" t="s">
+        <v>747</v>
+      </c>
+      <c r="G5" s="60" t="s">
         <v>764</v>
       </c>
-      <c r="G5" s="58" t="s">
-        <v>176</v>
-      </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="82">
-        <v>2</v>
-      </c>
-      <c r="J5" s="60" t="s">
+      <c r="H5" s="58" t="s">
+        <v>719</v>
+      </c>
+      <c r="I5" s="60"/>
+      <c r="J5" s="82">
+        <v>2.1</v>
+      </c>
+      <c r="K5" s="60" t="s">
         <v>775</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>791</v>
-      </c>
       <c r="L5" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="M5" s="58" t="s">
-        <v>329</v>
+        <v>645</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>646</v>
       </c>
       <c r="N5" s="61">
         <v>0</v>
@@ -9697,31 +9697,31 @@
         <v>496</v>
       </c>
       <c r="B6" s="58" t="s">
+        <v>749</v>
+      </c>
+      <c r="C6" s="58" t="s">
         <v>774</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="D6" s="58" t="s">
         <v>786</v>
       </c>
-      <c r="D6" s="58" t="s">
-        <v>327</v>
-      </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58" t="s">
+      <c r="E6" s="58" t="s">
+        <v>747</v>
+      </c>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58" t="s">
         <v>764</v>
       </c>
-      <c r="G6" s="58" t="s">
-        <v>176</v>
-      </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="78">
-        <v>3</v>
-      </c>
-      <c r="J6" s="58"/>
+      <c r="H6" s="58" t="s">
+        <v>719</v>
+      </c>
+      <c r="I6" s="58"/>
+      <c r="J6" s="78">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="K6" s="58"/>
       <c r="L6" s="58"/>
-      <c r="M6" s="58" t="s">
-        <v>329</v>
-      </c>
+      <c r="M6" s="58"/>
       <c r="N6" s="59">
         <v>0</v>
       </c>
@@ -9730,37 +9730,37 @@
       <c r="A7" t="s">
         <v>497</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="58" t="s">
+        <v>749</v>
+      </c>
+      <c r="C7" s="60" t="s">
         <v>774</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="D7" s="60" t="s">
         <v>786</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="58" t="s">
-        <v>327</v>
-      </c>
-      <c r="F7" s="60" t="s">
+      <c r="E7" s="60"/>
+      <c r="F7" s="58" t="s">
+        <v>747</v>
+      </c>
+      <c r="G7" s="60" t="s">
         <v>764</v>
       </c>
-      <c r="G7" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="82">
-        <v>3</v>
-      </c>
-      <c r="J7" s="60" t="s">
+      <c r="H7" s="58" t="s">
+        <v>718</v>
+      </c>
+      <c r="I7" s="60"/>
+      <c r="J7" s="82">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K7" s="60" t="s">
         <v>775</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>791</v>
-      </c>
       <c r="L7" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="M7" s="58" t="s">
-        <v>329</v>
+        <v>645</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>646</v>
       </c>
       <c r="N7" s="61">
         <v>0</v>
@@ -9800,13 +9800,13 @@
           <x14:formula1>
             <xm:f>HTS!$H$2:$H$25</xm:f>
           </x14:formula1>
-          <xm:sqref>D4 D2 D6 E7 E3 E5 M2:M7</xm:sqref>
+          <xm:sqref>B2:B7 E2 E4 F5 F3 E6 F7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Configs!$O$3:$O$33</xm:f>
           </x14:formula1>
-          <xm:sqref>K5:L5 K7:L7 G2:G7</xm:sqref>
+          <xm:sqref>L5:M5 H2:H7 L7:M7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Template/LiveHTS.xlsx
+++ b/Template/LiveHTS.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="747">
   <si>
     <t>Ever Tested?</t>
   </si>
@@ -1946,9 +1946,6 @@
     <t>P,  b25efd8a-852f-11e7-bb31-be2e44b06b34</t>
   </si>
   <si>
-    <t>I,  b25f001e-852f-11e7-bb31-be2e44b06b34</t>
-  </si>
-  <si>
     <t>FinalResult</t>
   </si>
   <si>
@@ -1995,36 +1992,6 @@
   </si>
   <si>
     <t>CCC#,  b25fddea-852f-11e7-bb31-be2e44b06b34</t>
-  </si>
-  <si>
-    <t>Test,  b2604442-852f-11e7-bb31-be2e44b06b34</t>
-  </si>
-  <si>
-    <t>Kit Name of the first HIV rapid test kit,  b26045aa-852f-11e7-bb31-be2e44b06b34</t>
-  </si>
-  <si>
-    <t>Lot number of the test kit,  b260487a-852f-11e7-bb31-be2e44b06b34</t>
-  </si>
-  <si>
-    <t>Expiry date of the test kit.,  b26049f6-852f-11e7-bb31-be2e44b06b34</t>
-  </si>
-  <si>
-    <t>Test Result,  b2605694-852f-11e7-bb31-be2e44b06b34</t>
-  </si>
-  <si>
-    <t>Kit Name of the first HIV rapid test kit,  b260511c-852f-11e7-bb31-be2e44b06b34</t>
-  </si>
-  <si>
-    <t>Lot number of the test kit,  b260525c-852f-11e7-bb31-be2e44b06b34</t>
-  </si>
-  <si>
-    <t>Expiry date of the test kit.,  b2605540-852f-11e7-bb31-be2e44b06b34</t>
-  </si>
-  <si>
-    <t>Test Result,  b2604ce4-852f-11e7-bb31-be2e44b06b34</t>
-  </si>
-  <si>
-    <t>Test,  b2604fb4-852f-11e7-bb31-be2e44b06b34</t>
   </si>
   <si>
     <t>Final Result,  b2605964-852f-11e7-bb31-be2e44b06b34</t>
@@ -2666,6 +2633,30 @@
   </si>
   <si>
     <t>Ko,  b25f0a50-852f-11e7-bb31-be2e44b06b34</t>
+  </si>
+  <si>
+    <t>HIV Test 1 Kit Name,  b26045aa-852f-11e7-bb31-be2e44b06b34</t>
+  </si>
+  <si>
+    <t>HIV Test 1 Lot number of the test kit,  b260487a-852f-11e7-bb31-be2e44b06b34</t>
+  </si>
+  <si>
+    <t>HIV Test 1 Expiry date of the test kit.,  b26049f6-852f-11e7-bb31-be2e44b06b34</t>
+  </si>
+  <si>
+    <t>HIV Test 2 Kit Name,  b260511c-852f-11e7-bb31-be2e44b06b34</t>
+  </si>
+  <si>
+    <t>HIV Test 2 Lot number of the test kit,  b260525c-852f-11e7-bb31-be2e44b06b34</t>
+  </si>
+  <si>
+    <t>HIV Test 2 Expiry date of the test kit.,  b2605540-852f-11e7-bb31-be2e44b06b34</t>
+  </si>
+  <si>
+    <t>HIV Test 2 Test Result,  b2605694-852f-11e7-bb31-be2e44b06b34</t>
+  </si>
+  <si>
+    <t>I: Invalid,  b25f001e-852f-11e7-bb31-be2e44b06b34</t>
   </si>
 </sst>
 </file>
@@ -2815,7 +2806,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2844,13 +2835,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2858,6 +2852,16 @@
     <cellStyle name="Normal_Validations" xfId="2"/>
   </cellStyles>
   <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2937,16 +2941,6 @@
           <color indexed="8"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3124,8 +3118,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="J2:J4" totalsRowShown="0" headerRowBorderDxfId="7" tableBorderDxfId="6" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="J2:J4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="L2:L4" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="7" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="L2:L4"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Id" dataCellStyle="Normal"/>
   </tableColumns>
@@ -3134,8 +3128,8 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="L2:L5" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="L2:L5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="N2:N5" totalsRowShown="0" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="N2:N5"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Id" dataCellStyle="Normal"/>
   </tableColumns>
@@ -3147,7 +3141,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A2:H27" totalsRowShown="0">
   <autoFilter ref="A2:H27"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Id" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Id" dataDxfId="3" dataCellStyle="Normal"/>
     <tableColumn id="2" name="ValidatorId" dataCellStyle="Normal"/>
     <tableColumn id="3" name="ValidatorTypeId" dataCellStyle="Normal"/>
     <tableColumn id="4" name="Revision" dataCellStyle="Normal"/>
@@ -3164,7 +3158,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:L11" totalsRowShown="0">
   <autoFilter ref="A1:L11"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Id" dataDxfId="1"/>
+    <tableColumn id="1" name="Id" dataDxfId="2"/>
     <tableColumn id="2" name="QuestionId"/>
     <tableColumn id="3" name="ConditionId"/>
     <tableColumn id="4" name="ResponseType"/>
@@ -3185,7 +3179,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:N7" totalsRowShown="0">
   <autoFilter ref="A1:N7"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="0"/>
+    <tableColumn id="1" name="Id" dataDxfId="1"/>
     <tableColumn id="2" name="QuestionId"/>
     <tableColumn id="3" name="ConditionId"/>
     <tableColumn id="4" name="ClientAttributeId"/>
@@ -3605,8 +3599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3811,16 +3805,16 @@
         <v>239</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C8" s="8">
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="F8" s="1">
         <v>8</v>
@@ -3838,16 +3832,16 @@
         <v>240</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C9" s="8">
         <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="F9" s="1">
         <v>9</v>
@@ -3865,16 +3859,16 @@
         <v>241</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C10" s="8">
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="F10" s="1">
         <v>10</v>
@@ -3892,16 +3886,16 @@
         <v>242</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C11" s="8">
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="F11" s="1">
         <v>11</v>
@@ -3919,16 +3913,16 @@
         <v>243</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C12" s="8">
         <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="F12" s="1">
         <v>13</v>
@@ -3946,16 +3940,16 @@
         <v>244</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C13" s="8">
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="F13" s="1">
         <v>14</v>
@@ -3973,16 +3967,16 @@
         <v>245</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C14" s="8">
         <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="F14" s="1">
         <v>15</v>
@@ -4000,16 +3994,16 @@
         <v>246</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C15" s="8">
         <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="F15" s="1">
         <v>16</v>
@@ -4027,7 +4021,7 @@
         <v>247</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C16" s="8">
         <v>17</v>
@@ -4054,7 +4048,7 @@
         <v>248</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C17" s="8">
         <v>18</v>
@@ -4081,16 +4075,16 @@
         <v>255</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="F18" s="1">
         <v>18.100000000000001</v>
@@ -4108,7 +4102,7 @@
         <v>249</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C19" s="8">
         <v>19</v>
@@ -4162,7 +4156,7 @@
         <v>251</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C21" s="8">
         <v>21</v>
@@ -4189,7 +4183,7 @@
         <v>252</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C22" s="8">
         <v>22</v>
@@ -4483,8 +4477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29:U32"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4521,37 +4515,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
       <c r="G1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="M1" s="11" t="s">
-        <v>710</v>
-      </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
+      <c r="J1" s="13"/>
+      <c r="M1" s="13" t="s">
+        <v>699</v>
+      </c>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
       <c r="Q1" s="6"/>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" s="12"/>
+      <c r="Y1" s="14"/>
       <c r="AB1" t="s">
         <v>601</v>
       </c>
@@ -4652,7 +4646,7 @@
         <v>585</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="Q3" s="1">
         <v>1</v>
@@ -4721,7 +4715,7 @@
         <v>585</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="Q4" s="1">
         <v>2</v>
@@ -4799,7 +4793,7 @@
         <v>18</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="V5" s="1" t="str">
         <f t="shared" ref="V5:V32" si="2">T5&amp;",  "&amp;S5</f>
@@ -4858,7 +4852,7 @@
         <v>17</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="V6" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4917,7 +4911,7 @@
         <v>21</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="V7" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4973,7 +4967,7 @@
         <v>22</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="V8" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5029,7 +5023,7 @@
         <v>23</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="V9" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5057,7 +5051,7 @@
         <v>160</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K10" s="7" t="str">
         <f t="shared" si="1"/>
@@ -5082,7 +5076,7 @@
         <v>24</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="V10" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5107,7 +5101,7 @@
         <v>161</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K11" s="7" t="str">
         <f t="shared" si="1"/>
@@ -5132,7 +5126,7 @@
         <v>45</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="V11" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5160,7 +5154,7 @@
         <v>162</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="K12" s="7" t="str">
         <f t="shared" si="1"/>
@@ -5185,7 +5179,7 @@
         <v>46</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="V12" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5203,7 +5197,7 @@
         <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="E13" s="7" t="str">
         <f t="shared" ref="E13:E22" si="3">B13&amp;",  "&amp;A13</f>
@@ -5232,7 +5226,7 @@
         <v>47</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="V13" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5276,7 +5270,7 @@
         <v>48</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="V14" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5320,7 +5314,7 @@
         <v>49</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="V15" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5367,7 +5361,7 @@
         <v>50</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="V16" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5385,7 +5379,7 @@
         <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E17" s="7" t="str">
         <f t="shared" si="3"/>
@@ -5414,7 +5408,7 @@
         <v>51</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="V17" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5461,7 +5455,7 @@
         <v>52</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="V18" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5479,7 +5473,7 @@
         <v>28</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E19" s="7" t="str">
         <f t="shared" si="3"/>
@@ -5508,7 +5502,7 @@
         <v>53</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="V19" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5555,7 +5549,7 @@
         <v>54</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="V20" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5567,7 +5561,7 @@
         <v>191</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>31</v>
@@ -5599,7 +5593,7 @@
         <v>55</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="V21" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5611,7 +5605,7 @@
         <v>192</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>31</v>
@@ -5643,7 +5637,7 @@
         <v>56</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="V22" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5733,7 +5727,7 @@
         <v>20</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="V25" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5751,7 +5745,7 @@
         <v>635</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>637</v>
+        <v>724</v>
       </c>
       <c r="Q26" s="1">
         <v>2</v>
@@ -5763,7 +5757,7 @@
         <v>23</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="V26" s="1" t="str">
         <f>U26&amp;",  "&amp;S26</f>
@@ -5781,7 +5775,7 @@
         <v>635</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>638</v>
+        <v>746</v>
       </c>
       <c r="Q27" s="1">
         <v>3</v>
@@ -5793,7 +5787,7 @@
         <v>45</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="V27" s="1" t="str">
         <f>U27&amp;",  "&amp;S27</f>
@@ -5808,7 +5802,7 @@
         <v>138</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>636</v>
@@ -5820,10 +5814,10 @@
         <v>98</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="V28" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5838,10 +5832,10 @@
         <v>139</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="Q29" s="1">
         <v>2</v>
@@ -5850,10 +5844,10 @@
         <v>99</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="V29" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5868,10 +5862,10 @@
         <v>140</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="Q30" s="1">
         <v>3</v>
@@ -5880,10 +5874,10 @@
         <v>100</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="V30" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5898,10 +5892,10 @@
         <v>141</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>565</v>
+        <v>722</v>
       </c>
       <c r="Q31" s="1">
         <v>1</v>
@@ -5910,10 +5904,10 @@
         <v>101</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="V31" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5928,10 +5922,10 @@
         <v>142</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>566</v>
+        <v>723</v>
       </c>
       <c r="Q32" s="1">
         <v>2</v>
@@ -5940,10 +5934,10 @@
         <v>102</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="V32" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5958,7 +5952,7 @@
         <v>143</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>567</v>
@@ -5978,11 +5972,11 @@
       <c r="M34" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="N34" s="14" t="s">
-        <v>743</v>
+      <c r="N34" s="12" t="s">
+        <v>732</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="Q34" s="1">
         <v>1</v>
@@ -5999,11 +5993,11 @@
       <c r="M35" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="N35" s="14" t="s">
-        <v>743</v>
+      <c r="N35" s="12" t="s">
+        <v>732</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="Q35" s="1">
         <v>2</v>
@@ -6020,11 +6014,11 @@
       <c r="M36" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="N36" s="14" t="s">
-        <v>743</v>
+      <c r="N36" s="12" t="s">
+        <v>732</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="Q36" s="1">
         <v>3</v>
@@ -6041,11 +6035,11 @@
       <c r="M37" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="N37" s="14" t="s">
-        <v>743</v>
+      <c r="N37" s="12" t="s">
+        <v>732</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="Q37" s="1">
         <v>4</v>
@@ -6261,7 +6255,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection sqref="A1:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="53.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6286,28 +6280,28 @@
         <v>613</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>614</v>
@@ -6321,13 +6315,13 @@
         <v>616</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>566</v>
+        <v>723</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>605</v>
@@ -6347,14 +6341,14 @@
         <v>619</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>566</v>
+        <v>723</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -6362,7 +6356,7 @@
         <v>605</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
@@ -6373,14 +6367,14 @@
         <v>354</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>636</v>
@@ -6391,7 +6385,7 @@
         <v>605</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -6402,17 +6396,17 @@
         <v>355</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>565</v>
+        <v>722</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -6420,7 +6414,7 @@
         <v>605</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -6431,17 +6425,17 @@
         <v>356</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>566</v>
+        <v>723</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -6449,7 +6443,7 @@
         <v>605</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -6632,7 +6626,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 J2:J6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>$G$2:$G$26</formula1>
     </dataValidation>
   </dataValidations>
@@ -6642,7 +6636,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Configs!$O$3:$O$33</xm:f>
@@ -6655,6 +6649,12 @@
           </x14:formula1>
           <xm:sqref>B2:B6</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'HTS Lab'!$H$2:$H$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>J2:J6</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -6663,10 +6663,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="55.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6679,30 +6679,34 @@
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="82.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="120.42578125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>615</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="J1" s="9" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="L1" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
@@ -6727,14 +6731,14 @@
       <c r="H2" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="L2" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>292</v>
       </c>
@@ -6755,15 +6759,18 @@
       <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="I3" s="4"/>
       <c r="J3" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>293</v>
       </c>
@@ -6784,15 +6791,18 @@
       <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="I4" s="4"/>
       <c r="J4" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>294</v>
       </c>
@@ -6813,11 +6823,14 @@
       <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>295</v>
       </c>
@@ -6838,8 +6851,11 @@
       <c r="H6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>296</v>
       </c>
@@ -6860,8 +6876,11 @@
       <c r="H7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J7" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>297</v>
       </c>
@@ -6882,8 +6901,11 @@
       <c r="H8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J8" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>298</v>
       </c>
@@ -6899,13 +6921,16 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>655</v>
+        <v>739</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J9" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>299</v>
       </c>
@@ -6921,13 +6946,16 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>656</v>
+        <v>740</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J10" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>300</v>
       </c>
@@ -6943,13 +6971,16 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>657</v>
+        <v>741</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J11" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>301</v>
       </c>
@@ -6965,13 +6996,16 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>658</v>
+        <v>680</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J12" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>302</v>
       </c>
@@ -6987,13 +7021,16 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>663</v>
+        <v>742</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J13" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>303</v>
       </c>
@@ -7009,13 +7046,16 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>664</v>
+        <v>743</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J14" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>304</v>
       </c>
@@ -7031,13 +7071,16 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>660</v>
+        <v>744</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J15" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>305</v>
       </c>
@@ -7053,13 +7096,16 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>661</v>
+        <v>745</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J16" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>306</v>
       </c>
@@ -7075,13 +7121,16 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J17" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>307</v>
       </c>
@@ -7097,13 +7146,16 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J18" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>308</v>
       </c>
@@ -7119,13 +7171,16 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>665</v>
+        <v>685</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J19" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>309</v>
       </c>
@@ -7141,13 +7196,16 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J20" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>310</v>
       </c>
@@ -7163,13 +7221,16 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J21" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>311</v>
       </c>
@@ -7185,13 +7246,16 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J22" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>312</v>
       </c>
@@ -7207,13 +7271,16 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J23" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>313</v>
       </c>
@@ -7229,13 +7296,16 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J24" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>314</v>
       </c>
@@ -7251,83 +7321,76 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J25" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>315</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>605</v>
+        <v>29</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>672</v>
+        <v>617</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>317</v>
       </c>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>318</v>
       </c>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>319</v>
       </c>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>320</v>
       </c>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>321</v>
       </c>
@@ -7487,17 +7550,17 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+  <conditionalFormatting sqref="H30:J30">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B27">
-      <formula1>$J$3:$J$4</formula1>
+      <formula1>$L$3:$L$4</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C27">
-      <formula1>$L$3:$L$5</formula1>
+      <formula1>$N$3:$N$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7527,7 +7590,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection sqref="A1:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="75.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7536,7 +7599,7 @@
     <col min="2" max="2" width="58.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="55.85546875" bestFit="1" customWidth="1"/>
@@ -7554,31 +7617,31 @@
         <v>613</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>614</v>
@@ -7592,19 +7655,19 @@
         <v>620</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
         <v>620</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
@@ -7624,16 +7687,16 @@
         <v>620</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="J3" s="1">
         <v>2</v>
@@ -7653,19 +7716,19 @@
         <v>620</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="J4" s="1">
         <v>4</v>
@@ -7683,19 +7746,19 @@
         <v>620</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
         <v>620</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="J5" s="1">
         <v>5</v>
@@ -7714,19 +7777,19 @@
         <v>620</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
         <v>620</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -7746,19 +7809,19 @@
         <v>620</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
         <v>620</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="J7" s="1">
         <v>2</v>
@@ -7776,19 +7839,19 @@
         <v>620</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="J8" s="1">
         <v>3</v>
@@ -7803,13 +7866,13 @@
         <v>399</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>636</v>
@@ -7817,10 +7880,10 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -7837,13 +7900,13 @@
         <v>400</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>636</v>
@@ -7851,10 +7914,10 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="J10" s="1">
         <v>2</v>
@@ -7869,24 +7932,24 @@
         <v>401</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>637</v>
+        <v>724</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="J11" s="1">
         <v>3</v>
@@ -7983,7 +8046,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="61.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8011,37 +8074,37 @@
         <v>613</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>687</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>614</v>
@@ -8052,23 +8115,23 @@
         <v>412</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
@@ -8085,23 +8148,23 @@
         <v>413</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -8118,20 +8181,20 @@
         <v>414</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>636</v>
@@ -8151,20 +8214,20 @@
         <v>415</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>637</v>
@@ -8173,7 +8236,7 @@
         <v>2.1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>565</v>
@@ -8190,20 +8253,20 @@
         <v>416</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>637</v>
@@ -8223,20 +8286,20 @@
         <v>417</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>636</v>
@@ -8245,7 +8308,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>565</v>

--- a/Template/LiveHTS.xlsx
+++ b/Template/LiveHTS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34725" windowHeight="19035" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34725" windowHeight="19035" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HTS Lab" sheetId="6" r:id="rId1"/>
@@ -2854,16 +2854,6 @@
   <dxfs count="21">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -2941,6 +2931,16 @@
           <color indexed="8"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3118,7 +3118,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="L2:L4" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="7" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="L2:L4" totalsRowShown="0" headerRowBorderDxfId="7" tableBorderDxfId="6" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="L2:L4"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Id" dataCellStyle="Normal"/>
@@ -3128,7 +3128,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="N2:N5" totalsRowShown="0" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="N2:N5" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="N2:N5"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Id" dataCellStyle="Normal"/>
@@ -3141,7 +3141,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A2:H27" totalsRowShown="0">
   <autoFilter ref="A2:H27"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Id" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Id" dataDxfId="2" dataCellStyle="Normal"/>
     <tableColumn id="2" name="ValidatorId" dataCellStyle="Normal"/>
     <tableColumn id="3" name="ValidatorTypeId" dataCellStyle="Normal"/>
     <tableColumn id="4" name="Revision" dataCellStyle="Normal"/>
@@ -3158,7 +3158,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:L11" totalsRowShown="0">
   <autoFilter ref="A1:L11"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Id" dataDxfId="2"/>
+    <tableColumn id="1" name="Id" dataDxfId="1"/>
     <tableColumn id="2" name="QuestionId"/>
     <tableColumn id="3" name="ConditionId"/>
     <tableColumn id="4" name="ResponseType"/>
@@ -3179,7 +3179,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:N7" totalsRowShown="0">
   <autoFilter ref="A1:N7"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="1"/>
+    <tableColumn id="1" name="Id" dataDxfId="0"/>
     <tableColumn id="2" name="QuestionId"/>
     <tableColumn id="3" name="ConditionId"/>
     <tableColumn id="4" name="ClientAttributeId"/>
@@ -3600,7 +3600,7 @@
   <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4477,8 +4477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6254,8 +6254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="53.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6435,7 +6435,7 @@
         <v>671</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -6443,7 +6443,7 @@
         <v>605</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>685</v>
+        <v>656</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -7551,7 +7551,7 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="H30:J30">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8045,8 +8045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="61.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Template/LiveHTS.xlsx
+++ b/Template/LiveHTS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\livedev\apps\LiveHTS\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\palladium\source\cbs\LiveHTS\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -6255,7 +6255,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:J6"/>
+      <selection sqref="A1:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="53.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6406,7 +6406,7 @@
         <v>671</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -6414,7 +6414,7 @@
         <v>605</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -6631,8 +6631,9 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">

--- a/Template/LiveHTS.xlsx
+++ b/Template/LiveHTS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34725" windowHeight="19035" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34725" windowHeight="19035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HTS Lab" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="744">
   <si>
     <t>Ever Tested?</t>
   </si>
@@ -2596,45 +2596,12 @@
     <t>KitName</t>
   </si>
   <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>Kit 1</t>
-  </si>
-  <si>
-    <t>Kit 2</t>
-  </si>
-  <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>Kit 3</t>
-  </si>
-  <si>
     <t>KitName,  b25f9c72-852f-11e7-bb31-be2e44b06b34</t>
   </si>
   <si>
-    <t>K1,  b25f0456-852f-11e7-bb31-be2e44b06b34</t>
-  </si>
-  <si>
-    <t>K2,  b25f05aa-852f-11e7-bb31-be2e44b06b34</t>
-  </si>
-  <si>
-    <t>K3,  b25f0776-852f-11e7-bb31-be2e44b06b34</t>
-  </si>
-  <si>
-    <t>Ko</t>
-  </si>
-  <si>
     <t>Other Kit</t>
   </si>
   <si>
-    <t>Ko,  b25f0a50-852f-11e7-bb31-be2e44b06b34</t>
-  </si>
-  <si>
     <t>HIV Test 1 Kit Name,  b26045aa-852f-11e7-bb31-be2e44b06b34</t>
   </si>
   <si>
@@ -2657,6 +2624,30 @@
   </si>
   <si>
     <t>I: Invalid,  b25f001e-852f-11e7-bb31-be2e44b06b34</t>
+  </si>
+  <si>
+    <t>Determine</t>
+  </si>
+  <si>
+    <t>First Response</t>
+  </si>
+  <si>
+    <t>KDT</t>
+  </si>
+  <si>
+    <t>KFR</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>KDT,  b25f0456-852f-11e7-bb31-be2e44b06b34</t>
+  </si>
+  <si>
+    <t>KFR,  b25f05aa-852f-11e7-bb31-be2e44b06b34</t>
+  </si>
+  <si>
+    <t>KO,  b25f0776-852f-11e7-bb31-be2e44b06b34</t>
   </si>
 </sst>
 </file>
@@ -4477,8 +4468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC62"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5197,7 +5188,7 @@
         <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="E13" s="7" t="str">
         <f t="shared" ref="E13:E22" si="3">B13&amp;",  "&amp;A13</f>
@@ -5775,7 +5766,7 @@
         <v>635</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="Q27" s="1">
         <v>3</v>
@@ -5844,14 +5835,14 @@
         <v>99</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="V29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>K1,  b25f0456-852f-11e7-bb31-be2e44b06b34</v>
+        <v>KDT,  b25f0456-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
@@ -5874,14 +5865,14 @@
         <v>100</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="V30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>K2,  b25f05aa-852f-11e7-bb31-be2e44b06b34</v>
+        <v>KFR,  b25f05aa-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
@@ -5904,14 +5895,14 @@
         <v>101</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="V31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>K3,  b25f0776-852f-11e7-bb31-be2e44b06b34</v>
+        <v>KO,  b25f0776-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
@@ -5933,16 +5924,7 @@
       <c r="S32" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="T32" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="U32" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="V32" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Ko,  b25f0a50-852f-11e7-bb31-be2e44b06b34</v>
-      </c>
+      <c r="U32" s="1"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
@@ -5973,10 +5955,10 @@
         <v>144</v>
       </c>
       <c r="N34" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="Q34" s="1">
         <v>1</v>
@@ -5994,10 +5976,10 @@
         <v>145</v>
       </c>
       <c r="N35" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="Q35" s="1">
         <v>2</v>
@@ -6015,10 +5997,10 @@
         <v>146</v>
       </c>
       <c r="N36" s="12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="Q36" s="1">
         <v>3</v>
@@ -6035,12 +6017,7 @@
       <c r="M37" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="N37" s="12" t="s">
-        <v>732</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>738</v>
-      </c>
+      <c r="N37" s="12"/>
       <c r="Q37" s="1">
         <v>4</v>
       </c>
@@ -6254,7 +6231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:K6"/>
     </sheetView>
   </sheetViews>
@@ -6922,13 +6899,13 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -6947,13 +6924,13 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -6972,13 +6949,13 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -7022,13 +6999,13 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -7047,13 +7024,13 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -7072,13 +7049,13 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -7097,13 +7074,13 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">

--- a/Template/LiveHTS.xlsx
+++ b/Template/LiveHTS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34725" windowHeight="19035" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34725" windowHeight="18195" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HTS Lab" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="741">
   <si>
     <t>Ever Tested?</t>
   </si>
@@ -1299,18 +1299,6 @@
   </si>
   <si>
     <t>b262f386-852f-11e7-bb31-be2e44b06b34</t>
-  </si>
-  <si>
-    <t>b262f4ee-852f-11e7-bb31-be2e44b06b34</t>
-  </si>
-  <si>
-    <t>b262faac-852f-11e7-bb31-be2e44b06b34</t>
-  </si>
-  <si>
-    <t>b262fc32-852f-11e7-bb31-be2e44b06b34</t>
-  </si>
-  <si>
-    <t>b262fda4-852f-11e7-bb31-be2e44b06b34</t>
   </si>
   <si>
     <t>b262ff02-852f-11e7-bb31-be2e44b06b34</t>
@@ -2649,12 +2637,15 @@
   <si>
     <t>KO,  b25f0776-852f-11e7-bb31-be2e44b06b34</t>
   </si>
+  <si>
+    <t>HIV Test Form</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2717,6 +2708,14 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2744,7 +2743,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2791,13 +2790,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="medium">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2836,6 +2850,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3634,7 +3649,7 @@
         <v>233</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -3649,7 +3664,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H2" s="1" t="str">
         <f>D2&amp;",  "&amp;A2</f>
@@ -3661,7 +3676,7 @@
         <v>234</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C3" s="8">
         <v>2</v>
@@ -3676,7 +3691,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H3" s="1" t="str">
         <f t="shared" ref="H3:H24" si="0">D3&amp;",  "&amp;A3</f>
@@ -3688,7 +3703,7 @@
         <v>235</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C4" s="8">
         <v>3</v>
@@ -3703,7 +3718,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3715,7 +3730,7 @@
         <v>236</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C5" s="8">
         <v>4</v>
@@ -3730,7 +3745,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3742,7 +3757,7 @@
         <v>237</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C6" s="8">
         <v>5</v>
@@ -3757,7 +3772,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3769,7 +3784,7 @@
         <v>238</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C7" s="8">
         <v>6</v>
@@ -3784,7 +3799,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3796,22 +3811,22 @@
         <v>239</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C8" s="8">
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="F8" s="1">
         <v>8</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3823,22 +3838,22 @@
         <v>240</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C9" s="8">
         <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F9" s="1">
         <v>9</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3850,22 +3865,22 @@
         <v>241</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C10" s="8">
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="F10" s="1">
         <v>10</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3877,22 +3892,22 @@
         <v>242</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C11" s="8">
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="F11" s="1">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3904,22 +3919,22 @@
         <v>243</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C12" s="8">
         <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="F12" s="1">
         <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3931,22 +3946,22 @@
         <v>244</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C13" s="8">
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F13" s="1">
         <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3958,22 +3973,22 @@
         <v>245</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C14" s="8">
         <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="F14" s="1">
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3985,22 +4000,22 @@
         <v>246</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C15" s="8">
         <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F15" s="1">
         <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4012,7 +4027,7 @@
         <v>247</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C16" s="8">
         <v>17</v>
@@ -4027,7 +4042,7 @@
         <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4039,7 +4054,7 @@
         <v>248</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C17" s="8">
         <v>18</v>
@@ -4054,7 +4069,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4066,22 +4081,22 @@
         <v>255</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="F18" s="1">
         <v>18.100000000000001</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H18" s="1" t="str">
         <f t="shared" ref="H18" si="1">D18&amp;",  "&amp;A18</f>
@@ -4093,7 +4108,7 @@
         <v>249</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C19" s="8">
         <v>19</v>
@@ -4108,7 +4123,7 @@
         <v>19</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4120,7 +4135,7 @@
         <v>250</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C20" s="8">
         <v>20</v>
@@ -4135,7 +4150,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4147,7 +4162,7 @@
         <v>251</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C21" s="8">
         <v>21</v>
@@ -4162,7 +4177,7 @@
         <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4174,7 +4189,7 @@
         <v>252</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C22" s="8">
         <v>22</v>
@@ -4189,7 +4204,7 @@
         <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4201,7 +4216,7 @@
         <v>253</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C23" s="8">
         <v>23</v>
@@ -4216,7 +4231,7 @@
         <v>23</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4228,7 +4243,7 @@
         <v>254</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C24" s="8">
         <v>24</v>
@@ -4243,7 +4258,7 @@
         <v>24</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4468,8 +4483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4520,7 +4535,7 @@
       </c>
       <c r="J1" s="13"/>
       <c r="M1" s="13" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
@@ -4538,7 +4553,7 @@
       </c>
       <c r="Y1" s="14"/>
       <c r="AB1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -4611,7 +4626,7 @@
         <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="E3" s="7" t="str">
         <f t="shared" ref="E3:E12" si="0">B3&amp;",  "&amp;A3</f>
@@ -4634,10 +4649,10 @@
         <v>113</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="Q3" s="1">
         <v>1</v>
@@ -4669,7 +4684,7 @@
         <v>291</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -4703,10 +4718,10 @@
         <v>114</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="Q4" s="1">
         <v>2</v>
@@ -4746,7 +4761,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4769,10 +4784,10 @@
         <v>115</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="Q5" s="1">
         <v>1</v>
@@ -4784,14 +4799,21 @@
         <v>18</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="V5" s="1" t="str">
-        <f t="shared" ref="V5:V32" si="2">T5&amp;",  "&amp;S5</f>
+        <f t="shared" ref="V5:V31" si="2">T5&amp;",  "&amp;S5</f>
         <v>NA,  b25ed1c0-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="X5" s="7" t="s">
         <v>69</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="Z5" s="1" t="str">
+        <f>Y5&amp;",  "&amp;X5</f>
+        <v>HIV Test Form,  b25ec568-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -4805,7 +4827,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="E6" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4828,10 +4850,10 @@
         <v>116</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="Q6" s="1">
         <v>2</v>
@@ -4843,7 +4865,7 @@
         <v>17</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="V6" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4864,14 +4886,14 @@
         <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E7" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Client tested as,  b25fbcca-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>157</v>
@@ -4887,10 +4909,10 @@
         <v>117</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="Q7" s="1">
         <v>3</v>
@@ -4902,7 +4924,7 @@
         <v>21</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="V7" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4911,8 +4933,11 @@
       <c r="X7" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB7" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>178</v>
       </c>
@@ -4923,7 +4948,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E8" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4933,7 +4958,7 @@
         <v>158</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="K8" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4943,10 +4968,10 @@
         <v>118</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="Q8" s="1">
         <v>4</v>
@@ -4958,7 +4983,7 @@
         <v>22</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="V8" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4967,6 +4992,12 @@
       <c r="X8" s="7" t="s">
         <v>72</v>
       </c>
+      <c r="AB8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC8" s="16" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -4979,7 +5010,7 @@
         <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="E9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4989,7 +5020,7 @@
         <v>159</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="K9" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4999,10 +5030,10 @@
         <v>119</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="Q9" s="1">
         <v>5</v>
@@ -5014,7 +5045,7 @@
         <v>23</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="V9" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5032,7 +5063,7 @@
         <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="E10" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5042,7 +5073,7 @@
         <v>160</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="K10" s="7" t="str">
         <f t="shared" si="1"/>
@@ -5052,10 +5083,10 @@
         <v>120</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="Q10" s="1">
         <v>6</v>
@@ -5067,7 +5098,7 @@
         <v>24</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="V10" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5092,7 +5123,7 @@
         <v>161</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="K11" s="7" t="str">
         <f t="shared" si="1"/>
@@ -5102,10 +5133,10 @@
         <v>121</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="Q11" s="1">
         <v>1</v>
@@ -5117,7 +5148,7 @@
         <v>45</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="V11" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5129,13 +5160,13 @@
         <v>182</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="E12" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5145,7 +5176,7 @@
         <v>162</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="K12" s="7" t="str">
         <f t="shared" si="1"/>
@@ -5155,10 +5186,10 @@
         <v>122</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="Q12" s="1">
         <v>2</v>
@@ -5170,7 +5201,7 @@
         <v>46</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="V12" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5182,13 +5213,13 @@
         <v>183</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="E13" s="7" t="str">
         <f t="shared" ref="E13:E22" si="3">B13&amp;",  "&amp;A13</f>
@@ -5202,10 +5233,10 @@
         <v>123</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="Q13" s="1">
         <v>1</v>
@@ -5217,7 +5248,7 @@
         <v>47</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="V13" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5229,7 +5260,7 @@
         <v>184</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>31</v>
@@ -5246,10 +5277,10 @@
         <v>124</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="Q14" s="1">
         <v>2</v>
@@ -5261,7 +5292,7 @@
         <v>48</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="V14" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5273,10 +5304,10 @@
         <v>185</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E15" s="7" t="str">
         <f t="shared" si="3"/>
@@ -5290,10 +5321,10 @@
         <v>125</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="Q15" s="1">
         <v>3</v>
@@ -5305,7 +5336,7 @@
         <v>49</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="V15" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5317,13 +5348,13 @@
         <v>186</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E16" s="7" t="str">
         <f t="shared" si="3"/>
@@ -5337,10 +5368,10 @@
         <v>126</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="Q16" s="1">
         <v>4</v>
@@ -5352,7 +5383,7 @@
         <v>50</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="V16" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5370,7 +5401,7 @@
         <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E17" s="7" t="str">
         <f t="shared" si="3"/>
@@ -5384,10 +5415,10 @@
         <v>127</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="Q17" s="1">
         <v>5</v>
@@ -5399,7 +5430,7 @@
         <v>51</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="V17" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5417,7 +5448,7 @@
         <v>28</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="E18" s="7" t="str">
         <f t="shared" si="3"/>
@@ -5431,10 +5462,10 @@
         <v>128</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="Q18" s="1">
         <v>6</v>
@@ -5446,7 +5477,7 @@
         <v>52</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="V18" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5464,7 +5495,7 @@
         <v>28</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="E19" s="7" t="str">
         <f t="shared" si="3"/>
@@ -5478,10 +5509,10 @@
         <v>129</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="Q19" s="1">
         <v>1</v>
@@ -5493,7 +5524,7 @@
         <v>53</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="V19" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5511,7 +5542,7 @@
         <v>28</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="E20" s="7" t="str">
         <f t="shared" si="3"/>
@@ -5525,10 +5556,10 @@
         <v>130</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="Q20" s="1">
         <v>2</v>
@@ -5540,7 +5571,7 @@
         <v>54</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="V20" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5552,7 +5583,7 @@
         <v>191</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>31</v>
@@ -5569,10 +5600,10 @@
         <v>131</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="Q21" s="1">
         <v>3</v>
@@ -5584,7 +5615,7 @@
         <v>55</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="V21" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5596,7 +5627,7 @@
         <v>192</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>31</v>
@@ -5613,10 +5644,10 @@
         <v>132</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="Q22" s="1">
         <v>4</v>
@@ -5628,7 +5659,7 @@
         <v>56</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="V22" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5643,10 +5674,10 @@
         <v>133</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="Q23" s="1">
         <v>1</v>
@@ -5655,7 +5686,7 @@
         <v>93</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>7</v>
@@ -5673,10 +5704,10 @@
         <v>134</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="Q24" s="1">
         <v>2</v>
@@ -5685,7 +5716,7 @@
         <v>94</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>8</v>
@@ -5703,10 +5734,10 @@
         <v>135</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="Q25" s="1">
         <v>1</v>
@@ -5718,7 +5749,7 @@
         <v>20</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="V25" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5733,10 +5764,10 @@
         <v>136</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="Q26" s="1">
         <v>2</v>
@@ -5748,7 +5779,7 @@
         <v>23</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="V26" s="1" t="str">
         <f>U26&amp;",  "&amp;S26</f>
@@ -5763,10 +5794,10 @@
         <v>137</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="Q27" s="1">
         <v>3</v>
@@ -5778,7 +5809,7 @@
         <v>45</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="V27" s="1" t="str">
         <f>U27&amp;",  "&amp;S27</f>
@@ -5793,10 +5824,10 @@
         <v>138</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="Q28" s="1">
         <v>1</v>
@@ -5805,10 +5836,10 @@
         <v>98</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="V28" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5823,10 +5854,10 @@
         <v>139</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="Q29" s="1">
         <v>2</v>
@@ -5835,10 +5866,10 @@
         <v>99</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="V29" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5853,10 +5884,10 @@
         <v>140</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="Q30" s="1">
         <v>3</v>
@@ -5865,10 +5896,10 @@
         <v>100</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="V30" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5883,10 +5914,10 @@
         <v>141</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="Q31" s="1">
         <v>1</v>
@@ -5895,10 +5926,10 @@
         <v>101</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="V31" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5913,10 +5944,10 @@
         <v>142</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="Q32" s="1">
         <v>2</v>
@@ -5934,10 +5965,10 @@
         <v>143</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="Q33" s="1">
         <v>3</v>
@@ -5955,10 +5986,10 @@
         <v>144</v>
       </c>
       <c r="N34" s="12" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="Q34" s="1">
         <v>1</v>
@@ -5976,10 +6007,10 @@
         <v>145</v>
       </c>
       <c r="N35" s="12" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="Q35" s="1">
         <v>2</v>
@@ -5997,10 +6028,10 @@
         <v>146</v>
       </c>
       <c r="N36" s="12" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="Q36" s="1">
         <v>3</v>
@@ -6254,34 +6285,34 @@
         <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>669</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6289,22 +6320,22 @@
         <v>352</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
@@ -6315,25 +6346,25 @@
         <v>353</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
@@ -6344,25 +6375,25 @@
         <v>354</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -6373,25 +6404,25 @@
         <v>355</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -6402,25 +6433,25 @@
         <v>356</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -6666,7 +6697,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -6678,10 +6709,10 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
       <c r="L1" s="9" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -6689,25 +6720,25 @@
         <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>610</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>614</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>32</v>
@@ -6721,10 +6752,10 @@
         <v>292</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -6732,20 +6763,20 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -6753,10 +6784,10 @@
         <v>293</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -6764,20 +6795,20 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -6785,10 +6816,10 @@
         <v>294</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -6796,13 +6827,13 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>29</v>
@@ -6813,10 +6844,10 @@
         <v>295</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -6824,13 +6855,13 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -6838,10 +6869,10 @@
         <v>296</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -6849,13 +6880,13 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -6863,10 +6894,10 @@
         <v>297</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -6874,13 +6905,13 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -6888,10 +6919,10 @@
         <v>298</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -6899,13 +6930,13 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -6913,10 +6944,10 @@
         <v>299</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -6924,13 +6955,13 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -6938,10 +6969,10 @@
         <v>300</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -6949,13 +6980,13 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -6963,10 +6994,10 @@
         <v>301</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -6974,13 +7005,13 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -6988,10 +7019,10 @@
         <v>302</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -6999,13 +7030,13 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -7013,10 +7044,10 @@
         <v>303</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -7024,13 +7055,13 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -7038,10 +7069,10 @@
         <v>304</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -7049,13 +7080,13 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -7063,10 +7094,10 @@
         <v>305</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -7074,13 +7105,13 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -7088,10 +7119,10 @@
         <v>306</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -7099,13 +7130,13 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -7113,10 +7144,10 @@
         <v>307</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -7124,13 +7155,13 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -7138,10 +7169,10 @@
         <v>308</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -7149,13 +7180,13 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -7163,10 +7194,10 @@
         <v>309</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -7174,13 +7205,13 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -7188,10 +7219,10 @@
         <v>310</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -7199,13 +7230,13 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -7213,10 +7244,10 @@
         <v>311</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -7224,13 +7255,13 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -7238,10 +7269,10 @@
         <v>312</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -7249,13 +7280,13 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -7263,10 +7294,10 @@
         <v>313</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -7274,13 +7305,13 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -7288,10 +7319,10 @@
         <v>314</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -7299,13 +7330,13 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -7313,7 +7344,7 @@
         <v>315</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>29</v>
@@ -7326,7 +7357,7 @@
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
@@ -7592,37 +7623,37 @@
         <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>664</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>668</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -7630,28 +7661,28 @@
         <v>392</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="L2" s="1">
         <v>0</v>
@@ -7662,25 +7693,25 @@
         <v>393</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="J3" s="1">
         <v>2</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="L3" s="1">
         <v>0</v>
@@ -7691,22 +7722,22 @@
         <v>394</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="J4" s="1">
         <v>4</v>
@@ -7721,22 +7752,22 @@
         <v>395</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="J5" s="1">
         <v>5</v>
@@ -7752,28 +7783,28 @@
         <v>396</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="L6" s="1">
         <v>0</v>
@@ -7784,22 +7815,22 @@
         <v>397</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="J7" s="1">
         <v>2</v>
@@ -7814,22 +7845,22 @@
         <v>398</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="J8" s="1">
         <v>3</v>
@@ -7844,30 +7875,30 @@
         <v>399</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="L9" s="1">
         <v>0</v>
@@ -7878,24 +7909,24 @@
         <v>400</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="J10" s="1">
         <v>2</v>
@@ -7910,24 +7941,24 @@
         <v>401</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="J11" s="1">
         <v>3</v>
@@ -8049,43 +8080,43 @@
         <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>668</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -8093,23 +8124,23 @@
         <v>412</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
@@ -8126,23 +8157,23 @@
         <v>413</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -8159,23 +8190,23 @@
         <v>414</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="J4" s="1">
         <v>2.1</v>
@@ -8192,35 +8223,35 @@
         <v>415</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="J5" s="1">
         <v>2.1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
@@ -8231,23 +8262,23 @@
         <v>416</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="J6" s="1">
         <v>2.2000000000000002</v>
@@ -8264,35 +8295,35 @@
         <v>417</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="J7" s="1">
         <v>2.2000000000000002</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="N7" s="1">
         <v>0</v>
@@ -8356,10 +8387,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A142"/>
+  <dimension ref="A5:A142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8367,717 +8398,698 @@
     <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>426</v>
-      </c>
-    </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Template/LiveHTS.xlsx
+++ b/Template/LiveHTS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34725" windowHeight="18195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34725" windowHeight="18195" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HTS Lab" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="763">
   <si>
     <t>Ever Tested?</t>
   </si>
@@ -2639,6 +2639,72 @@
   </si>
   <si>
     <t>HIV Test Form</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>EncounterTypeId</t>
+  </si>
+  <si>
+    <t>HTS Initial Test</t>
+  </si>
+  <si>
+    <t>b262f4ee-852f-11e7-bb31-be2e44b06b34</t>
+  </si>
+  <si>
+    <t>7e5164a6-6b99-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>b262faac-852f-11e7-bb31-be2e44b06b34</t>
+  </si>
+  <si>
+    <t>b262fc32-852f-11e7-bb31-be2e44b06b34</t>
+  </si>
+  <si>
+    <t>b262fda4-852f-11e7-bb31-be2e44b06b34</t>
+  </si>
+  <si>
+    <t>HTS Trace</t>
+  </si>
+  <si>
+    <t>HTS Linkage</t>
+  </si>
+  <si>
+    <t>HTS Confirmatory Test</t>
+  </si>
+  <si>
+    <t>HTS Initial</t>
+  </si>
+  <si>
+    <t>HTS Initial,  7e5164a6-6b99-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>HIV Test Form,  b25ec568-852f-11e7-bb31-be2e44b06b34</t>
+  </si>
+  <si>
+    <t>HTS Initial Test,  b262f4ee-852f-11e7-bb31-be2e44b06b34</t>
+  </si>
+  <si>
+    <t>HTS Confirmatory Test,  b262faac-852f-11e7-bb31-be2e44b06b34</t>
+  </si>
+  <si>
+    <t>HTS Linkage Form,  b25ec112-852f-11e7-bb31-be2e44b06b34</t>
+  </si>
+  <si>
+    <t>HTS Linkage,  b262fc32-852f-11e7-bb31-be2e44b06b34</t>
+  </si>
+  <si>
+    <t>Initial Test</t>
+  </si>
+  <si>
+    <t>Confirmatory Test</t>
+  </si>
+  <si>
+    <t>Linkage</t>
+  </si>
+  <si>
+    <t>Lab Detail</t>
   </si>
 </sst>
 </file>
@@ -2811,7 +2877,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2841,6 +2907,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2850,7 +2917,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2858,6 +2927,16 @@
     <cellStyle name="Normal_Validations" xfId="2"/>
   </cellStyles>
   <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2937,16 +3016,6 @@
           <color indexed="8"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3124,7 +3193,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="L2:L4" totalsRowShown="0" headerRowBorderDxfId="7" tableBorderDxfId="6" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="L2:L4" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="7" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="L2:L4"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Id" dataCellStyle="Normal"/>
@@ -3134,7 +3203,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="N2:N5" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="N2:N5" totalsRowShown="0" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="N2:N5"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Id" dataCellStyle="Normal"/>
@@ -3147,7 +3216,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A2:H27" totalsRowShown="0">
   <autoFilter ref="A2:H27"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Id" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Id" dataDxfId="3" dataCellStyle="Normal"/>
     <tableColumn id="2" name="ValidatorId" dataCellStyle="Normal"/>
     <tableColumn id="3" name="ValidatorTypeId" dataCellStyle="Normal"/>
     <tableColumn id="4" name="Revision" dataCellStyle="Normal"/>
@@ -3164,7 +3233,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:L11" totalsRowShown="0">
   <autoFilter ref="A1:L11"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Id" dataDxfId="1"/>
+    <tableColumn id="1" name="Id" dataDxfId="2"/>
     <tableColumn id="2" name="QuestionId"/>
     <tableColumn id="3" name="ConditionId"/>
     <tableColumn id="4" name="ResponseType"/>
@@ -3185,7 +3254,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:N7" totalsRowShown="0">
   <autoFilter ref="A1:N7"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="0"/>
+    <tableColumn id="1" name="Id" dataDxfId="1"/>
     <tableColumn id="2" name="QuestionId"/>
     <tableColumn id="3" name="ConditionId"/>
     <tableColumn id="4" name="ClientAttributeId"/>
@@ -4481,10 +4550,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC62"/>
+  <dimension ref="A1:AO62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AK12" sqref="AK12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4503,14 +4572,14 @@
     <col min="12" max="12" width="6.140625" style="1" customWidth="1"/>
     <col min="13" max="13" width="33.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="50.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="58.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.140625" style="1" customWidth="1"/>
     <col min="19" max="19" width="34.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="58.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.5703125" style="1" customWidth="1"/>
     <col min="24" max="24" width="34.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -4518,45 +4587,59 @@
     <col min="27" max="27" width="7" customWidth="1"/>
     <col min="28" max="28" width="39" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.5703125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="39.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="59.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.5703125" style="1" customWidth="1"/>
+    <col min="36" max="36" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="60.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="64.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
       <c r="G1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="M1" s="13" t="s">
+      <c r="J1" s="14"/>
+      <c r="M1" s="14" t="s">
         <v>695</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
       <c r="Q1" s="6"/>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
-      <c r="X1" s="14" t="s">
+      <c r="X1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" s="14"/>
+      <c r="Y1" s="15"/>
       <c r="AB1" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AJ1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
@@ -4614,8 +4697,35 @@
       <c r="AC2" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>173</v>
       </c>
@@ -4686,8 +4796,39 @@
       <c r="AC3" s="1" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE3" s="18" t="s">
+        <v>745</v>
+      </c>
+      <c r="AF3" s="18" t="s">
+        <v>752</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="1" t="str">
+        <f>AF3&amp;",  "&amp;AE3</f>
+        <v>HTS Initial,  7e5164a6-6b99-11e7-907b-a6006ad3dba0</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>423</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>595</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>753</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>762</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="AO3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>174</v>
       </c>
@@ -4749,9 +4890,40 @@
         <f>Y4&amp;",  "&amp;X4</f>
         <v>HTS Linkage Form,  b25ec112-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="AE4" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="1" t="str">
+        <f t="shared" ref="AH4:AH7" si="2">AF4&amp;",  "&amp;AE4</f>
+        <v>HTS Initial Test,  b262f4ee-852f-11e7-bb31-be2e44b06b34</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>424</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>759</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="AO4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>175</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4802,7 +4974,7 @@
         <v>696</v>
       </c>
       <c r="V5" s="1" t="str">
-        <f t="shared" ref="V5:V31" si="2">T5&amp;",  "&amp;S5</f>
+        <f t="shared" ref="V5:V31" si="3">T5&amp;",  "&amp;S5</f>
         <v>NA,  b25ed1c0-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="X5" s="7" t="s">
@@ -4815,9 +4987,40 @@
         <f>Y5&amp;",  "&amp;X5</f>
         <v>HIV Test Form,  b25ec568-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="AE5" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>HTS Confirmatory Test,  b262faac-852f-11e7-bb31-be2e44b06b34</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>425</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>760</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="AO5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>176</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -4868,15 +5071,46 @@
         <v>697</v>
       </c>
       <c r="V6" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>D,  b25ed332-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="X6" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="AE6" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>HTS Linkage,  b262fc32-852f-11e7-bb31-be2e44b06b34</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>426</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>761</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="AO6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>177</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -4927,7 +5161,7 @@
         <v>698</v>
       </c>
       <c r="V7" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>B,  b25ed648-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="X7" s="7" t="s">
@@ -4936,9 +5170,27 @@
       <c r="AB7" s="1" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="AE7" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>HTS Trace,  b262fda4-852f-11e7-bb31-be2e44b06b34</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>427</v>
+      </c>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+    </row>
+    <row r="8" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
         <v>178</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -4986,21 +5238,31 @@
         <v>699</v>
       </c>
       <c r="V8" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>M,  b25ed7c4-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="X8" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AB8" s="16" t="s">
+      <c r="AB8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AC8" s="16" t="s">
+      <c r="AC8" s="13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="AD8" s="19"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" t="s">
+        <v>428</v>
+      </c>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>179</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -5048,12 +5310,18 @@
         <v>700</v>
       </c>
       <c r="V9" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>P,  b25ed9ea-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="AB9" s="1"/>
+      <c r="AJ9" t="s">
+        <v>429</v>
+      </c>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>180</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -5101,12 +5369,18 @@
         <v>701</v>
       </c>
       <c r="V10" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>O,  b25edb5c-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="AB10" s="1"/>
+      <c r="AJ10" t="s">
+        <v>430</v>
+      </c>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>181</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -5151,12 +5425,17 @@
         <v>702</v>
       </c>
       <c r="V11" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>I,  b25ede36-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="AJ11" t="s">
+        <v>431</v>
+      </c>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
         <v>182</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -5204,12 +5483,12 @@
         <v>703</v>
       </c>
       <c r="V12" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>C,  b25ee0a2-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>183</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -5222,7 +5501,7 @@
         <v>722</v>
       </c>
       <c r="E13" s="7" t="str">
-        <f t="shared" ref="E13:E22" si="3">B13&amp;",  "&amp;A13</f>
+        <f t="shared" ref="E13:E22" si="4">B13&amp;",  "&amp;A13</f>
         <v>Kit Name: ,  b25fcd6e-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="I13" s="7" t="s">
@@ -5251,11 +5530,11 @@
         <v>704</v>
       </c>
       <c r="V13" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HP,  b25ee20a-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>184</v>
       </c>
@@ -5266,7 +5545,7 @@
         <v>31</v>
       </c>
       <c r="E14" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Lot No:,  b25fcecc-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="I14" s="7" t="s">
@@ -5295,11 +5574,11 @@
         <v>705</v>
       </c>
       <c r="V14" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NP,  b25ee476-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>185</v>
       </c>
@@ -5310,7 +5589,7 @@
         <v>623</v>
       </c>
       <c r="E15" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Expiry Date:,  b25fd1a6-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="I15" s="7" t="s">
@@ -5339,11 +5618,11 @@
         <v>706</v>
       </c>
       <c r="V15" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>VI,  b25ee642-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>186</v>
       </c>
@@ -5357,7 +5636,7 @@
         <v>631</v>
       </c>
       <c r="E16" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Test Result:,  b25fd322-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="I16" s="7" t="s">
@@ -5386,7 +5665,7 @@
         <v>707</v>
       </c>
       <c r="V16" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>VS,  b25ee930-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
@@ -5404,7 +5683,7 @@
         <v>635</v>
       </c>
       <c r="E17" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Final Result,  b25fd62e-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="I17" s="7" t="s">
@@ -5433,7 +5712,7 @@
         <v>708</v>
       </c>
       <c r="V17" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HB,  b25eeab6-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
@@ -5451,7 +5730,7 @@
         <v>581</v>
       </c>
       <c r="E18" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Final Result Given?,  b25fd78c-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="I18" s="7" t="s">
@@ -5480,7 +5759,7 @@
         <v>709</v>
       </c>
       <c r="V18" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>MO,  b25eed36-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
@@ -5498,7 +5777,7 @@
         <v>639</v>
       </c>
       <c r="E19" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Couple Discordant,  b25fd94e-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="I19" s="7" t="s">
@@ -5527,7 +5806,7 @@
         <v>710</v>
       </c>
       <c r="V19" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Pr TB,  b25eefca-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
@@ -5545,7 +5824,7 @@
         <v>581</v>
       </c>
       <c r="E20" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Linked to Care?,  b25fdb9c-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="I20" s="7" t="s">
@@ -5574,7 +5853,7 @@
         <v>711</v>
       </c>
       <c r="V20" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NS,  b25ef128-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
@@ -5589,7 +5868,7 @@
         <v>31</v>
       </c>
       <c r="E21" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CCC#,  b25fddea-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="I21" s="7" t="s">
@@ -5618,7 +5897,7 @@
         <v>712</v>
       </c>
       <c r="V21" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ND,  b25ef3d0-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
@@ -5633,7 +5912,7 @@
         <v>31</v>
       </c>
       <c r="E22" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Reason Result Not Given?,  b25fdf3e-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="I22" s="7" t="s">
@@ -5662,7 +5941,7 @@
         <v>713</v>
       </c>
       <c r="V22" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TBRX,  b25ef63c-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
@@ -5692,7 +5971,7 @@
         <v>7</v>
       </c>
       <c r="V23" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>H1,  b25ef7c2-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
@@ -5722,7 +6001,7 @@
         <v>8</v>
       </c>
       <c r="V24" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>H2,  b25ef90c-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
@@ -5752,7 +6031,7 @@
         <v>714</v>
       </c>
       <c r="V25" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>N,  b25efb78-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
@@ -5842,7 +6121,7 @@
         <v>717</v>
       </c>
       <c r="V28" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Ic,  b25f017c-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
@@ -5872,7 +6151,7 @@
         <v>732</v>
       </c>
       <c r="V29" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>KDT,  b25f0456-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
@@ -5902,7 +6181,7 @@
         <v>733</v>
       </c>
       <c r="V30" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>KFR,  b25f05aa-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
@@ -5932,7 +6211,7 @@
         <v>723</v>
       </c>
       <c r="V31" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>KO,  b25f0776-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
@@ -6230,7 +6509,7 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:P1"/>
   </mergeCells>
-  <dataValidations count="4">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N50">
       <formula1>$K$3:$K$33</formula1>
     </dataValidation>
@@ -6242,6 +6521,12 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C22">
       <formula1>$G$3:$G$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK3:AK11">
+      <formula1>$Z$3:$Z$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL3:AL11">
+      <formula1>$AH$3:$AH$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6696,16 +6981,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>611</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
       <c r="L1" s="9" t="s">
@@ -7560,7 +7845,7 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="H30:J30">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8387,10 +8672,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:A142"/>
+  <dimension ref="A14:A142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection activeCell="A5" sqref="A5:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8398,51 +8683,6 @@
     <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>431</v>
-      </c>
-    </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>432</v>

--- a/Template/LiveHTS.xlsx
+++ b/Template/LiveHTS.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="778">
   <si>
     <t>Ever Tested?</t>
   </si>
@@ -2705,6 +2705,51 @@
   </si>
   <si>
     <t>Lab Detail</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>NC: Not Contacted</t>
+  </si>
+  <si>
+    <t>C: Contacted</t>
+  </si>
+  <si>
+    <t>C: Contacted,  b25f0a50-852f-11e7-bb31-be2e44b06b34</t>
+  </si>
+  <si>
+    <t>NC,  b25f102c-852f-11e7-bb31-be2e44b06b34</t>
+  </si>
+  <si>
+    <t>PHY</t>
+  </si>
+  <si>
+    <t>PHN</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>TraceMode</t>
+  </si>
+  <si>
+    <t>TraceOutcome</t>
+  </si>
+  <si>
+    <t>TraceMode,  b25fa190-852f-11e7-bb31-be2e44b06b34</t>
+  </si>
+  <si>
+    <t>TraceOutcome,  b25f9e16-852f-11e7-bb31-be2e44b06b34</t>
+  </si>
+  <si>
+    <t>PHY,  b25f159a-852f-11e7-bb31-be2e44b06b34</t>
+  </si>
+  <si>
+    <t>PHN,  b25f136a-852f-11e7-bb31-be2e44b06b34</t>
   </si>
 </sst>
 </file>
@@ -2908,6 +2953,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2917,9 +2965,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2927,16 +2972,6 @@
     <cellStyle name="Normal_Validations" xfId="2"/>
   </cellStyles>
   <dxfs count="21">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -3016,6 +3051,16 @@
           <color indexed="8"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3193,7 +3238,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="L2:L4" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="7" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="L2:L4" totalsRowShown="0" headerRowBorderDxfId="7" tableBorderDxfId="6" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="L2:L4"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Id" dataCellStyle="Normal"/>
@@ -3203,7 +3248,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="N2:N5" totalsRowShown="0" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="N2:N5" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="N2:N5"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Id" dataCellStyle="Normal"/>
@@ -3216,7 +3261,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A2:H27" totalsRowShown="0">
   <autoFilter ref="A2:H27"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Id" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Id" dataDxfId="2" dataCellStyle="Normal"/>
     <tableColumn id="2" name="ValidatorId" dataCellStyle="Normal"/>
     <tableColumn id="3" name="ValidatorTypeId" dataCellStyle="Normal"/>
     <tableColumn id="4" name="Revision" dataCellStyle="Normal"/>
@@ -3233,7 +3278,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:L11" totalsRowShown="0">
   <autoFilter ref="A1:L11"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Id" dataDxfId="2"/>
+    <tableColumn id="1" name="Id" dataDxfId="1"/>
     <tableColumn id="2" name="QuestionId"/>
     <tableColumn id="3" name="ConditionId"/>
     <tableColumn id="4" name="ResponseType"/>
@@ -3254,7 +3299,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:N7" totalsRowShown="0">
   <autoFilter ref="A1:N7"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="1"/>
+    <tableColumn id="1" name="Id" dataDxfId="0"/>
     <tableColumn id="2" name="QuestionId"/>
     <tableColumn id="3" name="ConditionId"/>
     <tableColumn id="4" name="ClientAttributeId"/>
@@ -4552,8 +4597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AK12" sqref="AK12"/>
+    <sheetView tabSelected="1" topLeftCell="J17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4601,37 +4646,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
       <c r="G1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="M1" s="14" t="s">
+      <c r="J1" s="17"/>
+      <c r="M1" s="17" t="s">
         <v>695</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
       <c r="Q1" s="6"/>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" s="15"/>
+      <c r="Y1" s="18"/>
       <c r="AB1" t="s">
         <v>597</v>
       </c>
@@ -4796,10 +4841,10 @@
       <c r="AC3" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="AE3" s="18" t="s">
+      <c r="AE3" s="15" t="s">
         <v>745</v>
       </c>
-      <c r="AF3" s="18" t="s">
+      <c r="AF3" s="15" t="s">
         <v>752</v>
       </c>
       <c r="AG3" s="1">
@@ -4852,7 +4897,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="7" t="str">
-        <f t="shared" ref="K4:K12" si="1">J4&amp;",  "&amp;I4</f>
+        <f t="shared" ref="K4:K14" si="1">J4&amp;",  "&amp;I4</f>
         <v>Disability,  b25f8926-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="M4" s="7" t="s">
@@ -4923,7 +4968,7 @@
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="14" t="s">
         <v>175</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4974,7 +5019,7 @@
         <v>696</v>
       </c>
       <c r="V5" s="1" t="str">
-        <f t="shared" ref="V5:V31" si="3">T5&amp;",  "&amp;S5</f>
+        <f t="shared" ref="V5:V35" si="3">T5&amp;",  "&amp;S5</f>
         <v>NA,  b25ed1c0-852f-11e7-bb31-be2e44b06b34</v>
       </c>
       <c r="X5" s="7" t="s">
@@ -5020,7 +5065,7 @@
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="14" t="s">
         <v>176</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -5110,7 +5155,7 @@
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="14" t="s">
         <v>177</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -5190,7 +5235,7 @@
       <c r="AL7" s="1"/>
     </row>
     <row r="8" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="14" t="s">
         <v>178</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -5250,11 +5295,11 @@
       <c r="AC8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AD8" s="19"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="19"/>
-      <c r="AI8" s="19"/>
+      <c r="AD8" s="16"/>
+      <c r="AF8" s="16"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="16"/>
+      <c r="AI8" s="16"/>
       <c r="AJ8" t="s">
         <v>428</v>
       </c>
@@ -5262,7 +5307,7 @@
       <c r="AL8" s="1"/>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="14" t="s">
         <v>179</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -5321,7 +5366,7 @@
       <c r="AL9" s="1"/>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="14" t="s">
         <v>180</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -5380,7 +5425,7 @@
       <c r="AL10" s="1"/>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="14" t="s">
         <v>181</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -5435,7 +5480,7 @@
       <c r="AL11" s="1"/>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="14" t="s">
         <v>182</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -5488,7 +5533,7 @@
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="14" t="s">
         <v>183</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -5507,7 +5552,13 @@
       <c r="I13" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="K13" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>TraceOutcome,  b25f9e16-852f-11e7-bb31-be2e44b06b34</v>
+      </c>
       <c r="M13" s="7" t="s">
         <v>123</v>
       </c>
@@ -5551,7 +5602,13 @@
       <c r="I14" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="K14" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>TraceMode,  b25fa190-852f-11e7-bb31-be2e44b06b34</v>
+      </c>
       <c r="M14" s="7" t="s">
         <v>124</v>
       </c>
@@ -6234,7 +6291,16 @@
       <c r="S32" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="U32" s="1"/>
+      <c r="T32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="V32" s="1" t="str">
+        <f>U32&amp;",  "&amp;S32</f>
+        <v>C: Contacted,  b25f0a50-852f-11e7-bb31-be2e44b06b34</v>
+      </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
@@ -6255,7 +6321,16 @@
       <c r="S33" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="U33" s="1"/>
+      <c r="T33" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="V33" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>NC,  b25f102c-852f-11e7-bb31-be2e44b06b34</v>
+      </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
@@ -6276,7 +6351,16 @@
       <c r="S34" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="U34" s="1"/>
+      <c r="T34" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="V34" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>PHN,  b25f136a-852f-11e7-bb31-be2e44b06b34</v>
+      </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
@@ -6297,7 +6381,16 @@
       <c r="S35" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="U35" s="1"/>
+      <c r="T35" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="V35" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>PHY,  b25f159a-852f-11e7-bb31-be2e44b06b34</v>
+      </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
@@ -6327,9 +6420,14 @@
       <c r="M37" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="N37" s="12"/>
+      <c r="N37" s="12" t="s">
+        <v>775</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>766</v>
+      </c>
       <c r="Q37" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S37" s="7" t="s">
         <v>107</v>
@@ -6343,6 +6441,15 @@
       <c r="M38" s="7" t="s">
         <v>148</v>
       </c>
+      <c r="N38" s="12" t="s">
+        <v>775</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>2</v>
+      </c>
       <c r="S38" s="7" t="s">
         <v>108</v>
       </c>
@@ -6355,6 +6462,15 @@
       <c r="M39" s="7" t="s">
         <v>149</v>
       </c>
+      <c r="N39" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>1</v>
+      </c>
       <c r="S39" s="7" t="s">
         <v>109</v>
       </c>
@@ -6366,6 +6482,15 @@
       </c>
       <c r="M40" s="7" t="s">
         <v>150</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>2</v>
       </c>
       <c r="S40" s="7" t="s">
         <v>110</v>
@@ -6981,16 +7106,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>611</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
       <c r="L1" s="9" t="s">
@@ -7845,7 +7970,7 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="H30:J30">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Template/LiveHTS.xlsx
+++ b/Template/LiveHTS.xlsx
@@ -4597,8 +4597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q41"/>
+    <sheetView tabSelected="1" topLeftCell="L18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Template/LiveHTS.xlsx
+++ b/Template/LiveHTS.xlsx
@@ -4597,8 +4597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:Q40"/>
+    <sheetView tabSelected="1" topLeftCell="O18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Template/LiveHTS.xlsx
+++ b/Template/LiveHTS.xlsx
@@ -4597,8 +4597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Template/LiveHTS.xlsx
+++ b/Template/LiveHTS.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34725" windowHeight="18195" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34725" windowHeight="18195" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HTS Lab" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="RemoteTransformation" sheetId="16" r:id="rId6"/>
     <sheet name="IDS" sheetId="12" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2755,22 +2755,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2782,12 +2773,6 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2820,6 +2805,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2827,8 +2835,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2851,6 +2865,12 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor theme="8" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2919,57 +2939,64 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Configs_1" xfId="1"/>
-    <cellStyle name="Normal_Validations" xfId="2"/>
+    <cellStyle name="Normal_Configs_1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal_Validations" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -3222,199 +3249,199 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G24" totalsRowShown="0" headerRowBorderDxfId="20" tableBorderDxfId="19" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="A1:G24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G24" totalsRowShown="0" headerRowBorderDxfId="20" tableBorderDxfId="19" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="A1:G24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Id" dataDxfId="18" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="ConceptId" dataDxfId="17" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Ordinal" dataDxfId="16" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Display" dataCellStyle="Normal"/>
-    <tableColumn id="5" name="Description" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="Rank" dataCellStyle="Normal"/>
-    <tableColumn id="7" name="FormId" dataDxfId="15" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="18" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ConceptId" dataDxfId="17" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Ordinal" dataDxfId="16" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Display" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Description" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Rank" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="FormId" dataDxfId="15" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="L2:L4" totalsRowShown="0" headerRowBorderDxfId="7" tableBorderDxfId="6" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="L2:L4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table12" displayName="Table12" ref="L2:L4" totalsRowShown="0" headerRowBorderDxfId="7" tableBorderDxfId="6" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="L2:L4" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Id" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Id" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="N2:N5" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="N2:N5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table13" displayName="Table13" ref="N2:N5" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="N2:N5" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Id" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Id" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A2:H27" totalsRowShown="0">
-  <autoFilter ref="A2:H27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table15" displayName="Table15" ref="A2:H27" totalsRowShown="0">
+  <autoFilter ref="A2:H27" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Id" dataDxfId="2" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="ValidatorId" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="ValidatorTypeId" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Revision" dataCellStyle="Normal"/>
-    <tableColumn id="5" name="MinLimit" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="MaxLimit" dataCellStyle="Normal"/>
-    <tableColumn id="7" name="QuestionId" dataCellStyle="Normal"/>
-    <tableColumn id="8" name="Voided" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Id" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="ValidatorId" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="ValidatorTypeId" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Revision" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="MinLimit" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="MaxLimit" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="QuestionId" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0B00-000008000000}" name="Voided" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:L11" totalsRowShown="0">
-  <autoFilter ref="A1:L11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table4" displayName="Table4" ref="A1:L11" totalsRowShown="0">
+  <autoFilter ref="A1:L11" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Id" dataDxfId="1"/>
-    <tableColumn id="2" name="QuestionId"/>
-    <tableColumn id="3" name="ConditionId"/>
-    <tableColumn id="4" name="ResponseType"/>
-    <tableColumn id="5" name="Response"/>
-    <tableColumn id="6" name="ResponseComplex"/>
-    <tableColumn id="7" name="Group"/>
-    <tableColumn id="8" name="RefQuestionId"/>
-    <tableColumn id="9" name="ActionId"/>
-    <tableColumn id="10" name="Rank"/>
-    <tableColumn id="11" name="Content"/>
-    <tableColumn id="12" name="Voided"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="Id" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="QuestionId"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="ConditionId"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="ResponseType"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="Response"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="ResponseComplex"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="Group"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" name="RefQuestionId"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0C00-000009000000}" name="ActionId"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0C00-00000A000000}" name="Rank"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0C00-00000B000000}" name="Content"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0C00-00000C000000}" name="Voided"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:N7" totalsRowShown="0">
-  <autoFilter ref="A1:N7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table6" displayName="Table6" ref="A1:N7" totalsRowShown="0">
+  <autoFilter ref="A1:N7" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="0"/>
-    <tableColumn id="2" name="QuestionId"/>
-    <tableColumn id="3" name="ConditionId"/>
-    <tableColumn id="4" name="ClientAttributeId"/>
-    <tableColumn id="5" name="RemoteQuestionId"/>
-    <tableColumn id="6" name="SelfQuestionId"/>
-    <tableColumn id="7" name="ResponseType"/>
-    <tableColumn id="8" name="Response"/>
-    <tableColumn id="9" name="ResponseComplex"/>
-    <tableColumn id="10" name="Group"/>
-    <tableColumn id="11" name="ActionId"/>
-    <tableColumn id="12" name="Content"/>
-    <tableColumn id="13" name="AltContent"/>
-    <tableColumn id="14" name="Voided"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="Id" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="QuestionId"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="ConditionId"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="ClientAttributeId"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" name="RemoteQuestionId"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0D00-000006000000}" name="SelfQuestionId"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0D00-000007000000}" name="ResponseType"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0D00-000008000000}" name="Response"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0D00-000009000000}" name="ResponseComplex"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0D00-00000A000000}" name="Group"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0D00-00000B000000}" name="ActionId"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0D00-00000C000000}" name="Content"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0D00-00000D000000}" name="AltContent"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0D00-00000E000000}" name="Voided"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:D22" totalsRowShown="0">
-  <autoFilter ref="A2:D22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A2:D22" totalsRowShown="0">
+  <autoFilter ref="A2:D22" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Id" dataDxfId="14" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Name" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="ConceptTypeId" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="CategoryId" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Id" dataDxfId="14" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ConceptTypeId" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="CategoryId" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="G2:G7" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="G2:G7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="G2:G7" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="G2:G7" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Id" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Id" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="I2:J11" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="I2:J11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table5" displayName="Table5" ref="I2:J11" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="I2:J11" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Id" dataDxfId="13" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Code" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Id" dataDxfId="13" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Code" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="M2:Q33" totalsRowShown="0">
-  <autoFilter ref="M2:Q33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table7" displayName="Table7" ref="M2:Q33" totalsRowShown="0">
+  <autoFilter ref="M2:Q33" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Id" dataDxfId="12"/>
-    <tableColumn id="2" name="CategoryId"/>
-    <tableColumn id="3" name="ItemId"/>
-    <tableColumn id="4" name="Display"/>
-    <tableColumn id="5" name="Rank"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Id" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="CategoryId"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ItemId"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Display"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Rank"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="S2:U28" totalsRowShown="0">
-  <autoFilter ref="S2:U28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table9" displayName="Table9" ref="S2:U28" totalsRowShown="0">
+  <autoFilter ref="S2:U28" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Id" dataDxfId="11"/>
-    <tableColumn id="2" name="Code"/>
-    <tableColumn id="3" name="Display"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Id" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Code"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Display"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="X2:Y4" totalsRowShown="0">
-  <autoFilter ref="X2:Y4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table10" displayName="Table10" ref="X2:Y4" totalsRowShown="0">
+  <autoFilter ref="X2:Y4" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Id" dataDxfId="10"/>
-    <tableColumn id="2" name="Name"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Id" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="AB2:AC3" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="AB2:AC3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table11" displayName="Table11" ref="AB2:AC3" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="AB2:AC3" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Id" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Name" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Id" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Name" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="A1:K6" totalsRowShown="0">
-  <autoFilter ref="A1:K6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table16" displayName="Table16" ref="A1:K6" totalsRowShown="0">
+  <autoFilter ref="A1:K6" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Id" dataDxfId="9"/>
-    <tableColumn id="2" name="QuestionId"/>
-    <tableColumn id="3" name="ConditionId"/>
-    <tableColumn id="4" name="RefQuestionId"/>
-    <tableColumn id="5" name="ResponseType"/>
-    <tableColumn id="6" name="Response"/>
-    <tableColumn id="7" name="ResponseComplex"/>
-    <tableColumn id="8" name="Group"/>
-    <tableColumn id="9" name="ActionId"/>
-    <tableColumn id="10" name="GotoQuestionId"/>
-    <tableColumn id="11" name="Voided"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Id" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="QuestionId"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="ConditionId"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="RefQuestionId"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="ResponseType"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Response"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="ResponseComplex"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="Group"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="ActionId"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="GotoQuestionId"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0800-00000B000000}" name="Voided"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3716,33 +3743,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A8" sqref="A8:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="44" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="82.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -3754,18 +3781,18 @@
       <c r="F1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="5">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -3777,7 +3804,7 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>595</v>
       </c>
       <c r="H2" s="1" t="str">
@@ -3786,13 +3813,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="5">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -3804,7 +3831,7 @@
       <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>595</v>
       </c>
       <c r="H3" s="1" t="str">
@@ -3813,13 +3840,13 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="5">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -3831,7 +3858,7 @@
       <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>595</v>
       </c>
       <c r="H4" s="1" t="str">
@@ -3840,13 +3867,13 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="5">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -3858,7 +3885,7 @@
       <c r="F5" s="1">
         <v>4</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>595</v>
       </c>
       <c r="H5" s="1" t="str">
@@ -3867,13 +3894,13 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="5">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -3885,7 +3912,7 @@
       <c r="F6" s="1">
         <v>5</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="4" t="s">
         <v>595</v>
       </c>
       <c r="H6" s="1" t="str">
@@ -3894,13 +3921,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -3912,7 +3939,7 @@
       <c r="F7" s="1">
         <v>6</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="4" t="s">
         <v>595</v>
       </c>
       <c r="H7" s="1" t="str">
@@ -3920,338 +3947,338 @@
         <v>Strategy,  b260417c-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="22" t="s">
         <v>641</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="23">
         <v>8</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="24" t="s">
         <v>668</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="24" t="s">
         <v>668</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="24">
         <v>8</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="22" t="s">
         <v>595</v>
       </c>
-      <c r="H8" s="1" t="str">
+      <c r="H8" s="24" t="str">
         <f t="shared" si="0"/>
         <v>HIV Test 1 Kit Name,  b26045aa-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="22" t="s">
         <v>642</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="23">
         <v>9</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="24" t="s">
         <v>691</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="24" t="s">
         <v>691</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="24">
         <v>9</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="22" t="s">
         <v>595</v>
       </c>
-      <c r="H9" s="1" t="str">
+      <c r="H9" s="24" t="str">
         <f t="shared" si="0"/>
         <v>HIV Test 1 Lot number of the test kit,  b260487a-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="22" t="s">
         <v>643</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="23">
         <v>10</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="24">
         <v>10</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="22" t="s">
         <v>595</v>
       </c>
-      <c r="H10" s="1" t="str">
+      <c r="H10" s="24" t="str">
         <f t="shared" si="0"/>
         <v>HIV Test 1 Expiry date of the test kit.,  b26049f6-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="22" t="s">
         <v>644</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="23">
         <v>11</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="24" t="s">
         <v>669</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="24" t="s">
         <v>669</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="24">
         <v>11</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="22" t="s">
         <v>595</v>
       </c>
-      <c r="H11" s="1" t="str">
+      <c r="H11" s="24" t="str">
         <f t="shared" si="0"/>
         <v>HIV Test 1 Test Result,  b2604ce4-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="22" t="s">
         <v>641</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="23">
         <v>13</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="24" t="s">
         <v>670</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="24" t="s">
         <v>670</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="24">
         <v>13</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="22" t="s">
         <v>595</v>
       </c>
-      <c r="H12" s="1" t="str">
+      <c r="H12" s="24" t="str">
         <f t="shared" si="0"/>
         <v>HIV Test 2 Kit Name,  b260511c-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="22" t="s">
         <v>642</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="23">
         <v>14</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="24" t="s">
         <v>693</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="24" t="s">
         <v>693</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="24">
         <v>14</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="22" t="s">
         <v>595</v>
       </c>
-      <c r="H13" s="1" t="str">
+      <c r="H13" s="24" t="str">
         <f t="shared" si="0"/>
         <v>HIV Test 2 Lot number of the test kit,  b260525c-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="22" t="s">
         <v>643</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="23">
         <v>15</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="24" t="s">
         <v>694</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="24" t="s">
         <v>694</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="24">
         <v>15</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="22" t="s">
         <v>595</v>
       </c>
-      <c r="H14" s="1" t="str">
+      <c r="H14" s="24" t="str">
         <f t="shared" si="0"/>
         <v>HIV Test 2 Expiry date of the test kit.,  b2605540-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="22" t="s">
         <v>644</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="23">
         <v>16</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="24" t="s">
         <v>671</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="24" t="s">
         <v>671</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="24">
         <v>16</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="22" t="s">
         <v>595</v>
       </c>
-      <c r="H15" s="1" t="str">
+      <c r="H15" s="24" t="str">
         <f t="shared" si="0"/>
         <v>HIV Test 2 Test Result,  b2605694-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="22" t="s">
         <v>645</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="23">
         <v>17</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="24">
         <v>17</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="22" t="s">
         <v>595</v>
       </c>
-      <c r="H16" s="1" t="str">
+      <c r="H16" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Final Result,  b2605964-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="22" t="s">
         <v>646</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="23">
         <v>18</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="24">
         <v>18</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="22" t="s">
         <v>595</v>
       </c>
-      <c r="H17" s="1" t="str">
+      <c r="H17" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Final Result Given?,  b2605ab8-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="22" t="s">
         <v>678</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="23" t="s">
         <v>679</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="24" t="s">
         <v>680</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="24" t="s">
         <v>680</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="24">
         <v>18.100000000000001</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="22" t="s">
         <v>595</v>
       </c>
-      <c r="H18" s="1" t="str">
+      <c r="H18" s="24" t="str">
         <f t="shared" ref="H18" si="1">D18&amp;",  "&amp;A18</f>
         <v>Reason Result Not Given,  b26067b0-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="22" t="s">
         <v>647</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="23">
         <v>19</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="24">
         <v>19</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="22" t="s">
         <v>595</v>
       </c>
-      <c r="H19" s="1" t="str">
+      <c r="H19" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Couple Discordant,  b2605c98-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="5">
         <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -4263,7 +4290,7 @@
       <c r="F20" s="1">
         <v>20</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="4" t="s">
         <v>595</v>
       </c>
       <c r="H20" s="1" t="str">
@@ -4272,13 +4299,13 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="5">
         <v>21</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -4290,7 +4317,7 @@
       <c r="F21" s="1">
         <v>21</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="4" t="s">
         <v>595</v>
       </c>
       <c r="H21" s="1" t="str">
@@ -4299,13 +4326,13 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="5">
         <v>22</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -4317,7 +4344,7 @@
       <c r="F22" s="1">
         <v>22</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="4" t="s">
         <v>595</v>
       </c>
       <c r="H22" s="1" t="str">
@@ -4325,41 +4352,41 @@
         <v>(Enter CCC#),  b26062e2-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="22" t="s">
         <v>593</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="23">
         <v>23</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="24">
         <v>23</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="22" t="s">
         <v>595</v>
       </c>
-      <c r="H23" s="1" t="str">
+      <c r="H23" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Ever had an HIV self-test in the past 12 months?,  b260644a-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="5">
         <v>24</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -4371,7 +4398,7 @@
       <c r="F24" s="1">
         <v>24</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="4" t="s">
         <v>595</v>
       </c>
       <c r="H24" s="1" t="str">
@@ -4380,177 +4407,177 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="4" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="4" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="4" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="4" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="4" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="4" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="4" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="4" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="4" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="4" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="4" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="4" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="4" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="4" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="4" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="4" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="4" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="4" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="4" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="4" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="4" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="4" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="4" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="4" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="4" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="4" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="4" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="4" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="4" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="4" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="4" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="4" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="4" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="4" t="s">
         <v>290</v>
       </c>
     </row>
@@ -4563,25 +4590,25 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Configs!$E$3:$E$25</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B7 B23:B24</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Configs!$E$3:$E$25</xm:f>
           </x14:formula1>
           <xm:sqref>B8:B22</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Configs!$E$3:$E$27</xm:f>
           </x14:formula1>
           <xm:sqref>B18</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Configs!$Z$3:$Z$4</xm:f>
           </x14:formula1>
@@ -4594,251 +4621,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AO62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" customWidth="1"/>
-    <col min="9" max="9" width="33.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="33.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="50.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="58.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="34.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="58.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.5703125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="34.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="56" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7" customWidth="1"/>
-    <col min="28" max="28" width="39" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.5703125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="39.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="59.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.5703125" style="1" customWidth="1"/>
-    <col min="36" max="36" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="60.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="64.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3" style="11" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="33.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="33.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="50.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="58.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.140625" style="11" customWidth="1"/>
+    <col min="19" max="19" width="34.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="58.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.5703125" style="11" customWidth="1"/>
+    <col min="24" max="24" width="34.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="56" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7" style="11" customWidth="1"/>
+    <col min="28" max="28" width="39" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.5703125" style="11" customWidth="1"/>
+    <col min="31" max="31" width="39.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="59.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.5703125" style="11" customWidth="1"/>
+    <col min="36" max="36" width="39.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="60.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="64.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="18.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="30.5703125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="G1" s="6" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="G1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="M1" s="17" t="s">
+      <c r="J1" s="9"/>
+      <c r="M1" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="6"/>
-      <c r="S1" s="17" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="12"/>
+      <c r="S1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="18" t="s">
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" s="18"/>
-      <c r="AB1" t="s">
+      <c r="Y1" s="14"/>
+      <c r="AB1" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AB2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AC2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AE2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AF2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AG2" s="11" t="s">
         <v>610</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AJ2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AK2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AL2" s="11" t="s">
         <v>742</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AM2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AN2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AO2" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="E3" s="7" t="str">
+      <c r="E3" s="10" t="str">
         <f t="shared" ref="E3:E12" si="0">B3&amp;",  "&amp;A3</f>
         <v>Ever Tested,  b25fb496-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="7" t="str">
+      <c r="K3" s="10" t="str">
         <f>J3&amp;",  "&amp;I3</f>
         <v>YesNo,  b25f86d8-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="11">
         <v>1</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="V3" s="1" t="str">
+      <c r="V3" s="11" t="str">
         <f>U3&amp;",  "&amp;S3</f>
         <v>Yes,  b25eccd4-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="X3" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Y3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Z3" t="str">
+      <c r="Z3" s="11" t="str">
         <f>Y3&amp;",  "&amp;X3</f>
         <v>HTS Lab Form,  b25ebcda-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AB3" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AC3" s="11" t="s">
         <v>596</v>
       </c>
       <c r="AE3" s="15" t="s">
@@ -4847,1781 +4875,1754 @@
       <c r="AF3" s="15" t="s">
         <v>752</v>
       </c>
-      <c r="AG3" s="1">
+      <c r="AG3" s="11">
         <v>0</v>
       </c>
-      <c r="AH3" s="1" t="str">
+      <c r="AH3" s="11" t="str">
         <f>AF3&amp;",  "&amp;AE3</f>
         <v>HTS Initial,  7e5164a6-6b99-11e7-907b-a6006ad3dba0</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AJ3" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AK3" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AL3" s="11" t="s">
         <v>753</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AM3" s="11" t="s">
         <v>762</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AN3" s="11" t="s">
         <v>762</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="7" t="str">
+      <c r="E4" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Re-Testing,  b25fb5fe-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="7" t="str">
+      <c r="K4" s="10" t="str">
         <f t="shared" ref="K4:K14" si="1">J4&amp;",  "&amp;I4</f>
         <v>Disability,  b25f8926-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="11">
         <v>2</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="S4" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="V4" s="1" t="str">
+      <c r="V4" s="11" t="str">
         <f>U4&amp;",  "&amp;S4</f>
         <v>No,  b25ed04e-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="X4" s="7" t="s">
+      <c r="X4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Y4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="Z4" s="1" t="str">
+      <c r="Z4" s="11" t="str">
         <f>Y4&amp;",  "&amp;X4</f>
         <v>HTS Linkage Form,  b25ec112-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="AE4" s="1" t="s">
+      <c r="AE4" s="11" t="s">
         <v>744</v>
       </c>
-      <c r="AF4" s="1" t="s">
+      <c r="AF4" s="11" t="s">
         <v>743</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AG4" s="11">
         <v>0</v>
       </c>
-      <c r="AH4" s="1" t="str">
+      <c r="AH4" s="11" t="str">
         <f t="shared" ref="AH4:AH7" si="2">AF4&amp;",  "&amp;AE4</f>
         <v>HTS Initial Test,  b262f4ee-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AJ4" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="AK4" s="1" t="s">
+      <c r="AK4" s="11" t="s">
         <v>754</v>
       </c>
-      <c r="AL4" s="1" t="s">
+      <c r="AL4" s="11" t="s">
         <v>755</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AM4" s="11" t="s">
         <v>759</v>
       </c>
-      <c r="AN4" s="1" t="s">
+      <c r="AN4" s="11" t="s">
         <v>759</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="E5" s="7" t="str">
+      <c r="E5" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Disability,  b25fb86a-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="7" t="str">
+      <c r="K5" s="10" t="str">
         <f t="shared" si="1"/>
         <v>TestedAs,  b25f8b88-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="11" t="s">
         <v>563</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="11">
         <v>1</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="S5" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="U5" s="11" t="s">
         <v>696</v>
       </c>
-      <c r="V5" s="1" t="str">
+      <c r="V5" s="11" t="str">
         <f t="shared" ref="V5:V35" si="3">T5&amp;",  "&amp;S5</f>
         <v>NA,  b25ed1c0-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="X5" s="7" t="s">
+      <c r="X5" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Y5" s="11" t="s">
         <v>740</v>
       </c>
-      <c r="Z5" s="1" t="str">
+      <c r="Z5" s="11" t="str">
         <f>Y5&amp;",  "&amp;X5</f>
         <v>HIV Test Form,  b25ec568-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="AE5" s="1" t="s">
+      <c r="AE5" s="11" t="s">
         <v>746</v>
       </c>
-      <c r="AF5" s="1" t="s">
+      <c r="AF5" s="11" t="s">
         <v>751</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AG5" s="11">
         <v>0</v>
       </c>
-      <c r="AH5" s="1" t="str">
+      <c r="AH5" s="11" t="str">
         <f t="shared" si="2"/>
         <v>HTS Confirmatory Test,  b262faac-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AJ5" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="AK5" s="1" t="s">
+      <c r="AK5" s="11" t="s">
         <v>754</v>
       </c>
-      <c r="AL5" s="1" t="s">
+      <c r="AL5" s="11" t="s">
         <v>756</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AM5" s="11" t="s">
         <v>760</v>
       </c>
-      <c r="AN5" s="1" t="s">
+      <c r="AN5" s="11" t="s">
         <v>760</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="E6" s="7" t="str">
+      <c r="E6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Consent,  b25fbb30-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="7" t="str">
+      <c r="K6" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Strategy,  b25f8fa2-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="11" t="s">
         <v>564</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="11">
         <v>2</v>
       </c>
-      <c r="S6" s="7" t="s">
+      <c r="S6" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="U6" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="V6" s="1" t="str">
+      <c r="V6" s="11" t="str">
         <f t="shared" si="3"/>
         <v>D,  b25ed332-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="X6" s="7" t="s">
+      <c r="X6" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AE6" s="1" t="s">
+      <c r="AE6" s="11" t="s">
         <v>747</v>
       </c>
-      <c r="AF6" s="1" t="s">
+      <c r="AF6" s="11" t="s">
         <v>750</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AG6" s="11">
         <v>0</v>
       </c>
-      <c r="AH6" s="1" t="str">
+      <c r="AH6" s="11" t="str">
         <f t="shared" si="2"/>
         <v>HTS Linkage,  b262fc32-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AJ6" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="AK6" s="1" t="s">
+      <c r="AK6" s="11" t="s">
         <v>757</v>
       </c>
-      <c r="AL6" s="1" t="s">
+      <c r="AL6" s="11" t="s">
         <v>758</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AM6" s="11" t="s">
         <v>761</v>
       </c>
-      <c r="AN6" s="1" t="s">
+      <c r="AN6" s="11" t="s">
         <v>761</v>
       </c>
-      <c r="AO6">
+      <c r="AO6" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="E7" s="7" t="str">
+      <c r="E7" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Client tested as,  b25fbcca-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="11" t="s">
         <v>623</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="7" t="str">
+      <c r="K7" s="10" t="str">
         <f t="shared" si="1"/>
         <v>TBScreening,  b25f911e-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="11">
         <v>3</v>
       </c>
-      <c r="S7" s="7" t="s">
+      <c r="S7" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="U7" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="V7" s="1" t="str">
+      <c r="V7" s="11" t="str">
         <f t="shared" si="3"/>
         <v>B,  b25ed648-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="X7" s="7" t="s">
+      <c r="X7" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AB7" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AE7" s="11" t="s">
         <v>748</v>
       </c>
-      <c r="AF7" s="1" t="s">
+      <c r="AF7" s="11" t="s">
         <v>749</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AG7" s="11">
         <v>0</v>
       </c>
-      <c r="AH7" s="1" t="str">
+      <c r="AH7" s="11" t="str">
         <f t="shared" si="2"/>
         <v>HTS Trace,  b262fda4-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AJ7" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="AK7" s="1"/>
-      <c r="AL7" s="1"/>
     </row>
     <row r="8" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="11" t="s">
         <v>584</v>
       </c>
-      <c r="E8" s="7" t="str">
+      <c r="E8" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Strategy,  b25fbf5e-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="K8" s="7" t="str">
+      <c r="K8" s="10" t="str">
         <f t="shared" si="1"/>
         <v>HIVTest,  b25f93d0-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="11">
         <v>4</v>
       </c>
-      <c r="S8" s="7" t="s">
+      <c r="S8" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="T8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="U8" s="11" t="s">
         <v>699</v>
       </c>
-      <c r="V8" s="1" t="str">
+      <c r="V8" s="11" t="str">
         <f t="shared" si="3"/>
         <v>M,  b25ed7c4-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="X8" s="7" t="s">
+      <c r="X8" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AB8" s="13" t="s">
+      <c r="AB8" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="AC8" s="13" t="s">
+      <c r="AC8" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="AD8" s="16"/>
-      <c r="AF8" s="16"/>
-      <c r="AG8" s="16"/>
-      <c r="AH8" s="16"/>
-      <c r="AI8" s="16"/>
-      <c r="AJ8" t="s">
+      <c r="AD8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="1"/>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="E9" s="7" t="str">
+      <c r="E9" s="10" t="str">
         <f t="shared" si="0"/>
         <v>TB Screening,  b25fc0c6-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="K9" s="7" t="str">
+      <c r="K9" s="10" t="str">
         <f t="shared" si="1"/>
         <v>TestResult,  b25f951a-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" s="11" t="s">
         <v>567</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="11">
         <v>5</v>
       </c>
-      <c r="S9" s="7" t="s">
+      <c r="S9" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="T9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="U9" s="11" t="s">
         <v>700</v>
       </c>
-      <c r="V9" s="1" t="str">
+      <c r="V9" s="11" t="str">
         <f t="shared" si="3"/>
         <v>P,  b25ed9ea-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="AB9" s="1"/>
-      <c r="AJ9" t="s">
+      <c r="AJ9" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="1"/>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="E10" s="7" t="str">
+      <c r="E10" s="10" t="str">
         <f t="shared" si="0"/>
         <v>HIV self-test,  b25fc698-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="K10" s="7" t="str">
+      <c r="K10" s="10" t="str">
         <f t="shared" si="1"/>
         <v>FinalResult,  b25f97a4-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="11">
         <v>6</v>
       </c>
-      <c r="S10" s="7" t="s">
+      <c r="S10" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="T10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="U10" s="11" t="s">
         <v>701</v>
       </c>
-      <c r="V10" s="1" t="str">
+      <c r="V10" s="11" t="str">
         <f t="shared" si="3"/>
         <v>O,  b25edb5c-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="AB10" s="1"/>
-      <c r="AJ10" t="s">
+      <c r="AJ10" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="1"/>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="7" t="str">
+      <c r="E11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Remarks,  b25fc864-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="11" t="s">
         <v>638</v>
       </c>
-      <c r="K11" s="7" t="str">
+      <c r="K11" s="10" t="str">
         <f t="shared" si="1"/>
         <v>YesNoNa,  b25f9952-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="O11" s="11" t="s">
         <v>569</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="11">
         <v>1</v>
       </c>
-      <c r="S11" s="7" t="s">
+      <c r="S11" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="T11" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="U11" s="11" t="s">
         <v>702</v>
       </c>
-      <c r="V11" s="1" t="str">
+      <c r="V11" s="11" t="str">
         <f t="shared" si="3"/>
         <v>I,  b25ede36-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AJ11" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="1"/>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="11" t="s">
         <v>622</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="E12" s="7" t="str">
+      <c r="E12" s="10" t="str">
         <f t="shared" si="0"/>
         <v>HIV Test,  b25fcac6-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="11" t="s">
         <v>721</v>
       </c>
-      <c r="K12" s="7" t="str">
+      <c r="K12" s="10" t="str">
         <f t="shared" si="1"/>
         <v>KitName,  b25f9c72-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="O12" s="11" t="s">
         <v>570</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="11">
         <v>2</v>
       </c>
-      <c r="S12" s="7" t="s">
+      <c r="S12" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="T12" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="U12" s="11" t="s">
         <v>703</v>
       </c>
-      <c r="V12" s="1" t="str">
+      <c r="V12" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C,  b25ee0a2-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="11" t="s">
         <v>618</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="11" t="s">
         <v>722</v>
       </c>
-      <c r="E13" s="7" t="str">
+      <c r="E13" s="10" t="str">
         <f t="shared" ref="E13:E22" si="4">B13&amp;",  "&amp;A13</f>
         <v>Kit Name: ,  b25fcd6e-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="11" t="s">
         <v>773</v>
       </c>
-      <c r="K13" s="7" t="str">
+      <c r="K13" s="10" t="str">
         <f t="shared" si="1"/>
         <v>TraceOutcome,  b25f9e16-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="N13" s="11" t="s">
         <v>584</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="O13" s="11" t="s">
         <v>571</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="11">
         <v>1</v>
       </c>
-      <c r="S13" s="7" t="s">
+      <c r="S13" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="T13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="U13" s="11" t="s">
         <v>704</v>
       </c>
-      <c r="V13" s="1" t="str">
+      <c r="V13" s="11" t="str">
         <f t="shared" si="3"/>
         <v>HP,  b25ee20a-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="11" t="s">
         <v>619</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="7" t="str">
+      <c r="E14" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Lot No:,  b25fcecc-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="11" t="s">
         <v>772</v>
       </c>
-      <c r="K14" s="7" t="str">
+      <c r="K14" s="10" t="str">
         <f t="shared" si="1"/>
         <v>TraceMode,  b25fa190-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" s="11" t="s">
         <v>584</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="O14" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="11">
         <v>2</v>
       </c>
-      <c r="S14" s="7" t="s">
+      <c r="S14" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="T14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="U14" s="11" t="s">
         <v>705</v>
       </c>
-      <c r="V14" s="1" t="str">
+      <c r="V14" s="11" t="str">
         <f t="shared" si="3"/>
         <v>NP,  b25ee476-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="11" t="s">
         <v>623</v>
       </c>
-      <c r="E15" s="7" t="str">
+      <c r="E15" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Expiry Date:,  b25fd1a6-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="M15" s="7" t="s">
+      <c r="M15" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" s="11" t="s">
         <v>584</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="O15" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="11">
         <v>3</v>
       </c>
-      <c r="S15" s="7" t="s">
+      <c r="S15" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="T15" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="U15" s="11" t="s">
         <v>706</v>
       </c>
-      <c r="V15" s="1" t="str">
+      <c r="V15" s="11" t="str">
         <f t="shared" si="3"/>
         <v>VI,  b25ee642-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="11" t="s">
         <v>621</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="11" t="s">
         <v>631</v>
       </c>
-      <c r="E16" s="7" t="str">
+      <c r="E16" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Test Result:,  b25fd322-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="M16" s="7" t="s">
+      <c r="M16" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" s="11" t="s">
         <v>584</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="O16" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="11">
         <v>4</v>
       </c>
-      <c r="S16" s="7" t="s">
+      <c r="S16" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="T16" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="U16" s="11" t="s">
         <v>707</v>
       </c>
-      <c r="V16" s="1" t="str">
+      <c r="V16" s="11" t="str">
         <f t="shared" si="3"/>
         <v>VS,  b25ee930-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="11" t="s">
         <v>635</v>
       </c>
-      <c r="E17" s="7" t="str">
+      <c r="E17" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Final Result,  b25fd62e-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="M17" s="7" t="s">
+      <c r="M17" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" s="11" t="s">
         <v>584</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="O17" s="11" t="s">
         <v>575</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="11">
         <v>5</v>
       </c>
-      <c r="S17" s="7" t="s">
+      <c r="S17" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="T17" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="U17" s="11" t="s">
         <v>708</v>
       </c>
-      <c r="V17" s="1" t="str">
+      <c r="V17" s="11" t="str">
         <f t="shared" si="3"/>
         <v>HB,  b25eeab6-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="E18" s="7" t="str">
+      <c r="E18" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Final Result Given?,  b25fd78c-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="M18" s="7" t="s">
+      <c r="M18" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" s="11" t="s">
         <v>584</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O18" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="11">
         <v>6</v>
       </c>
-      <c r="S18" s="7" t="s">
+      <c r="S18" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="T18" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="U18" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="V18" s="1" t="str">
+      <c r="V18" s="11" t="str">
         <f t="shared" si="3"/>
         <v>MO,  b25eed36-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="E19" s="7" t="str">
+      <c r="E19" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Couple Discordant,  b25fd94e-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="M19" s="7" t="s">
+      <c r="M19" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N19" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="O19" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="11">
         <v>1</v>
       </c>
-      <c r="S19" s="7" t="s">
+      <c r="S19" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="T19" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="U19" s="1" t="s">
+      <c r="U19" s="11" t="s">
         <v>710</v>
       </c>
-      <c r="V19" s="1" t="str">
+      <c r="V19" s="11" t="str">
         <f t="shared" si="3"/>
         <v>Pr TB,  b25eefca-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="E20" s="7" t="str">
+      <c r="E20" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Linked to Care?,  b25fdb9c-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="J20" s="1"/>
-      <c r="M20" s="7" t="s">
+      <c r="M20" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="N20" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="O20" s="11" t="s">
         <v>578</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="11">
         <v>2</v>
       </c>
-      <c r="S20" s="7" t="s">
+      <c r="S20" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="T20" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="U20" s="11" t="s">
         <v>711</v>
       </c>
-      <c r="V20" s="1" t="str">
+      <c r="V20" s="11" t="str">
         <f t="shared" si="3"/>
         <v>NS,  b25ef128-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="11" t="s">
         <v>640</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="7" t="str">
+      <c r="E21" s="10" t="str">
         <f t="shared" si="4"/>
         <v>CCC#,  b25fddea-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="M21" s="7" t="s">
+      <c r="M21" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="N21" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="O21" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="11">
         <v>3</v>
       </c>
-      <c r="S21" s="7" t="s">
+      <c r="S21" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="T21" s="1" t="s">
+      <c r="T21" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="U21" s="11" t="s">
         <v>712</v>
       </c>
-      <c r="V21" s="1" t="str">
+      <c r="V21" s="11" t="str">
         <f t="shared" si="3"/>
         <v>ND,  b25ef3d0-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="11" t="s">
         <v>677</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="7" t="str">
+      <c r="E22" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Reason Result Not Given?,  b25fdf3e-852f-11e7-bb31-be2e44b06b34</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="M22" s="7" t="s">
+      <c r="M22" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="N22" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="O22" s="11" t="s">
         <v>580</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="11">
         <v>4</v>
       </c>
-      <c r="S22" s="7" t="s">
+      <c r="S22" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="T22" s="1" t="s">
+      <c r="T22" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="U22" s="1" t="s">
+      <c r="U22" s="11" t="s">
         <v>713</v>
       </c>
-      <c r="V22" s="1" t="str">
+      <c r="V22" s="11" t="str">
         <f t="shared" si="3"/>
         <v>TBRX,  b25ef63c-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="M23" s="7" t="s">
+      <c r="M23" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="N23" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="O23" s="11" t="s">
         <v>626</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="11">
         <v>1</v>
       </c>
-      <c r="S23" s="7" t="s">
+      <c r="S23" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="T23" s="1" t="s">
+      <c r="T23" s="11" t="s">
         <v>624</v>
       </c>
-      <c r="U23" s="1" t="s">
+      <c r="U23" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="V23" s="1" t="str">
+      <c r="V23" s="11" t="str">
         <f t="shared" si="3"/>
         <v>H1,  b25ef7c2-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="M24" s="7" t="s">
+      <c r="M24" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="N24" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="O24" s="11" t="s">
         <v>627</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="11">
         <v>2</v>
       </c>
-      <c r="S24" s="7" t="s">
+      <c r="S24" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="T24" s="1" t="s">
+      <c r="T24" s="11" t="s">
         <v>625</v>
       </c>
-      <c r="U24" s="1" t="s">
+      <c r="U24" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="V24" s="1" t="str">
+      <c r="V24" s="11" t="str">
         <f t="shared" si="3"/>
         <v>H2,  b25ef90c-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="M25" s="7" t="s">
+      <c r="M25" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="N25" s="11" t="s">
         <v>631</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="O25" s="11" t="s">
         <v>632</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="11">
         <v>1</v>
       </c>
-      <c r="S25" s="7" t="s">
+      <c r="S25" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="T25" s="1" t="s">
+      <c r="T25" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="U25" s="1" t="s">
+      <c r="U25" s="11" t="s">
         <v>714</v>
       </c>
-      <c r="V25" s="1" t="str">
+      <c r="V25" s="11" t="str">
         <f t="shared" si="3"/>
         <v>N,  b25efb78-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="M26" s="7" t="s">
+      <c r="M26" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="N26" s="11" t="s">
         <v>631</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="O26" s="11" t="s">
         <v>720</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="11">
         <v>2</v>
       </c>
-      <c r="S26" s="7" t="s">
+      <c r="S26" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="T26" s="1" t="s">
+      <c r="T26" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="U26" s="1" t="s">
+      <c r="U26" s="11" t="s">
         <v>715</v>
       </c>
-      <c r="V26" s="1" t="str">
+      <c r="V26" s="11" t="str">
         <f>U26&amp;",  "&amp;S26</f>
         <v>P: Positive (Reactive),  b25efd8a-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="M27" s="7" t="s">
+      <c r="M27" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="N27" s="11" t="s">
         <v>631</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="O27" s="11" t="s">
         <v>731</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="11">
         <v>3</v>
       </c>
-      <c r="S27" s="7" t="s">
+      <c r="S27" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="T27" s="1" t="s">
+      <c r="T27" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="U27" s="1" t="s">
+      <c r="U27" s="11" t="s">
         <v>716</v>
       </c>
-      <c r="V27" s="1" t="str">
+      <c r="V27" s="11" t="str">
         <f>U27&amp;",  "&amp;S27</f>
         <v>I: Invalid,  b25f001e-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="M28" s="7" t="s">
+      <c r="M28" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="N28" s="11" t="s">
         <v>635</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="O28" s="11" t="s">
         <v>632</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="11">
         <v>1</v>
       </c>
-      <c r="S28" s="7" t="s">
+      <c r="S28" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="T28" s="1" t="s">
+      <c r="T28" s="11" t="s">
         <v>636</v>
       </c>
-      <c r="U28" s="1" t="s">
+      <c r="U28" s="11" t="s">
         <v>717</v>
       </c>
-      <c r="V28" s="1" t="str">
+      <c r="V28" s="11" t="str">
         <f t="shared" si="3"/>
         <v>Ic,  b25f017c-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="M29" s="7" t="s">
+      <c r="M29" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="N29" s="11" t="s">
         <v>635</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="O29" s="11" t="s">
         <v>720</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="11">
         <v>2</v>
       </c>
-      <c r="S29" s="7" t="s">
+      <c r="S29" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="T29" s="1" t="s">
+      <c r="T29" s="11" t="s">
         <v>734</v>
       </c>
-      <c r="U29" s="1" t="s">
+      <c r="U29" s="11" t="s">
         <v>732</v>
       </c>
-      <c r="V29" s="1" t="str">
+      <c r="V29" s="11" t="str">
         <f t="shared" si="3"/>
         <v>KDT,  b25f0456-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="M30" s="7" t="s">
+      <c r="M30" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="N30" s="11" t="s">
         <v>635</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="O30" s="11" t="s">
         <v>637</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="11">
         <v>3</v>
       </c>
-      <c r="S30" s="7" t="s">
+      <c r="S30" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="T30" s="1" t="s">
+      <c r="T30" s="11" t="s">
         <v>735</v>
       </c>
-      <c r="U30" s="1" t="s">
+      <c r="U30" s="11" t="s">
         <v>733</v>
       </c>
-      <c r="V30" s="1" t="str">
+      <c r="V30" s="11" t="str">
         <f t="shared" si="3"/>
         <v>KFR,  b25f05aa-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="M31" s="7" t="s">
+      <c r="M31" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="N31" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="O31" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31" s="11">
         <v>1</v>
       </c>
-      <c r="S31" s="7" t="s">
+      <c r="S31" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="T31" s="11" t="s">
         <v>736</v>
       </c>
-      <c r="U31" s="1" t="s">
+      <c r="U31" s="11" t="s">
         <v>723</v>
       </c>
-      <c r="V31" s="1" t="str">
+      <c r="V31" s="11" t="str">
         <f t="shared" si="3"/>
         <v>KO,  b25f0776-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="M32" s="7" t="s">
+      <c r="M32" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="N32" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="O32" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="11">
         <v>2</v>
       </c>
-      <c r="S32" s="7" t="s">
+      <c r="S32" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="T32" s="1" t="s">
+      <c r="T32" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="U32" s="1" t="s">
+      <c r="U32" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="V32" s="1" t="str">
+      <c r="V32" s="11" t="str">
         <f>U32&amp;",  "&amp;S32</f>
         <v>C: Contacted,  b25f0a50-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="M33" s="7" t="s">
+      <c r="M33" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="N33" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="O33" s="11" t="s">
         <v>563</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="Q33" s="11">
         <v>3</v>
       </c>
-      <c r="S33" s="7" t="s">
+      <c r="S33" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="T33" s="1" t="s">
+      <c r="T33" s="11" t="s">
         <v>763</v>
       </c>
-      <c r="U33" s="1" t="s">
+      <c r="U33" s="11" t="s">
         <v>764</v>
       </c>
-      <c r="V33" s="1" t="str">
+      <c r="V33" s="11" t="str">
         <f t="shared" si="3"/>
         <v>NC,  b25f102c-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="M34" s="7" t="s">
+      <c r="M34" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="N34" s="12" t="s">
+      <c r="N34" s="19" t="s">
         <v>722</v>
       </c>
-      <c r="O34" s="1" t="s">
+      <c r="O34" s="11" t="s">
         <v>737</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="Q34" s="11">
         <v>1</v>
       </c>
-      <c r="S34" s="7" t="s">
+      <c r="S34" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="T34" s="1" t="s">
+      <c r="T34" s="11" t="s">
         <v>769</v>
       </c>
-      <c r="U34" s="1" t="s">
+      <c r="U34" s="11" t="s">
         <v>770</v>
       </c>
-      <c r="V34" s="1" t="str">
+      <c r="V34" s="11" t="str">
         <f t="shared" si="3"/>
         <v>PHN,  b25f136a-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="M35" s="7" t="s">
+      <c r="M35" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="N35" s="12" t="s">
+      <c r="N35" s="19" t="s">
         <v>722</v>
       </c>
-      <c r="O35" s="1" t="s">
+      <c r="O35" s="11" t="s">
         <v>738</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="Q35" s="11">
         <v>2</v>
       </c>
-      <c r="S35" s="7" t="s">
+      <c r="S35" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="T35" s="1" t="s">
+      <c r="T35" s="11" t="s">
         <v>768</v>
       </c>
-      <c r="U35" s="1" t="s">
+      <c r="U35" s="11" t="s">
         <v>771</v>
       </c>
-      <c r="V35" s="1" t="str">
+      <c r="V35" s="11" t="str">
         <f t="shared" si="3"/>
         <v>PHY,  b25f159a-852f-11e7-bb31-be2e44b06b34</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="M36" s="7" t="s">
+      <c r="M36" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="N36" s="12" t="s">
+      <c r="N36" s="19" t="s">
         <v>722</v>
       </c>
-      <c r="O36" s="1" t="s">
+      <c r="O36" s="11" t="s">
         <v>739</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="Q36" s="11">
         <v>3</v>
       </c>
-      <c r="S36" s="7" t="s">
+      <c r="S36" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="U36" s="1"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="M37" s="7" t="s">
+      <c r="M37" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="N37" s="12" t="s">
+      <c r="N37" s="19" t="s">
         <v>775</v>
       </c>
-      <c r="O37" s="1" t="s">
+      <c r="O37" s="11" t="s">
         <v>766</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="Q37" s="11">
         <v>1</v>
       </c>
-      <c r="S37" s="7" t="s">
+      <c r="S37" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="U37" s="1"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="M38" s="7" t="s">
+      <c r="M38" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="N38" s="12" t="s">
+      <c r="N38" s="19" t="s">
         <v>775</v>
       </c>
-      <c r="O38" s="1" t="s">
+      <c r="O38" s="11" t="s">
         <v>767</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="Q38" s="11">
         <v>2</v>
       </c>
-      <c r="S38" s="7" t="s">
+      <c r="S38" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="U38" s="1"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="M39" s="7" t="s">
+      <c r="M39" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="N39" s="11" t="s">
         <v>774</v>
       </c>
-      <c r="O39" s="1" t="s">
+      <c r="O39" s="11" t="s">
         <v>777</v>
       </c>
-      <c r="Q39" s="1">
+      <c r="Q39" s="11">
         <v>1</v>
       </c>
-      <c r="S39" s="7" t="s">
+      <c r="S39" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="U39" s="1"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="M40" s="7" t="s">
+      <c r="M40" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="N40" s="1" t="s">
+      <c r="N40" s="11" t="s">
         <v>774</v>
       </c>
-      <c r="O40" s="1" t="s">
+      <c r="O40" s="11" t="s">
         <v>776</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="Q40" s="11">
         <v>2</v>
       </c>
-      <c r="S40" s="7" t="s">
+      <c r="S40" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="U40" s="1"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="M41" s="7" t="s">
+      <c r="M41" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="S41" s="7" t="s">
+      <c r="S41" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="U41" s="1"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="M42" s="7" t="s">
+      <c r="M42" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="S42" s="7" t="s">
+      <c r="S42" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="U42" s="1"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="V43" s="2"/>
-      <c r="W43" s="10"/>
+      <c r="V43" s="20"/>
+      <c r="W43" s="21"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="V44" s="2"/>
-      <c r="W44" s="10"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="21"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="10" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="10" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="10" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="10" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="10" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="10" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="10" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="10" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="10" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="10" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="10" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="10" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="10" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="10" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="10" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="10" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="10" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="10" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6635,22 +6636,22 @@
     <mergeCell ref="O1:P1"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N50" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$K$3:$K$33</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O80">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O80" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$V$3:$V$50</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D22" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>$K$3:$K$22</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C22" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>$G$3:$G$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK3:AK11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK3:AK11" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>$Z$3:$Z$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL3:AL11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL3:AL11" xr:uid="{00000000-0002-0000-0100-000005000000}">
       <formula1>$AH$3:$AH$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -6669,16 +6670,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="53.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -6691,7 +6692,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -6726,7 +6727,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>352</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -6752,7 +6753,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>353</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -6781,7 +6782,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>354</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -6810,7 +6811,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>355</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -6832,219 +6833,216 @@
         <v>601</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="24" t="s">
         <v>651</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="24" t="s">
         <v>666</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="24" t="s">
         <v>667</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="24" t="s">
         <v>718</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="24" t="s">
         <v>601</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="24" t="s">
         <v>652</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="4" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="4" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="4" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="4" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="4" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="4" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="4" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="4" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="4" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="4" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="4" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="4" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="4" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="4" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="4" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="4" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="4" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="4" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="4" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="4" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="4" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="4" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="4" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="4" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="4" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="4" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="4" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="4" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="4" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="4" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="4" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="4" t="s">
         <v>391</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$G$2:$G$26</formula1>
     </dataValidation>
   </dataValidations>
@@ -7056,19 +7054,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>Configs!$O$3:$O$33</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
             <xm:f>'HTS Lab'!$H$2:$H$25</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
           <x14:formula1>
             <xm:f>'HTS Lab'!$H$2:$H$24</xm:f>
           </x14:formula1>
@@ -7081,7 +7079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7090,7 +7088,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="55.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -7106,27 +7104,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="L1" s="9" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="L1" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="6" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -7158,7 +7156,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>292</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -7181,7 +7179,7 @@
       <c r="J3" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="K3" s="4"/>
+      <c r="K3" s="2"/>
       <c r="L3" s="1" t="s">
         <v>598</v>
       </c>
@@ -7190,7 +7188,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>293</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -7213,7 +7211,7 @@
       <c r="J4" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="K4" s="4"/>
+      <c r="K4" s="2"/>
       <c r="L4" s="1" t="s">
         <v>599</v>
       </c>
@@ -7222,7 +7220,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>294</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -7250,7 +7248,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>295</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -7275,7 +7273,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>296</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -7300,7 +7298,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>297</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -7325,7 +7323,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>298</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -7350,7 +7348,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="4" t="s">
         <v>299</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -7375,7 +7373,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="4" t="s">
         <v>300</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -7400,7 +7398,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="4" t="s">
         <v>301</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -7425,7 +7423,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="4" t="s">
         <v>302</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -7450,7 +7448,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="4" t="s">
         <v>303</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -7475,7 +7473,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="4" t="s">
         <v>304</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -7500,7 +7498,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="4" t="s">
         <v>305</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -7525,7 +7523,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="4" t="s">
         <v>306</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -7550,7 +7548,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="4" t="s">
         <v>307</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -7575,7 +7573,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="4" t="s">
         <v>308</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -7600,7 +7598,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="4" t="s">
         <v>309</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -7625,7 +7623,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="4" t="s">
         <v>310</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -7650,7 +7648,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="4" t="s">
         <v>311</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -7675,7 +7673,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="4" t="s">
         <v>312</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -7700,7 +7698,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="4" t="s">
         <v>313</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -7725,7 +7723,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="4" t="s">
         <v>314</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -7750,7 +7748,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="4" t="s">
         <v>315</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -7774,7 +7772,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="4" t="s">
         <v>316</v>
       </c>
       <c r="B27" s="1"/>
@@ -7786,182 +7784,182 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="G29" s="5"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="G30" s="5"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="G31" s="5"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G32" s="5"/>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="4" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="4" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="4" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="4" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="4" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="4" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="4" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="4" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="4" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="4" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="4" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="4" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="4" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="4" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="4" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="4" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="4" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="4" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="4" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="4" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="4" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="4" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="4" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="4" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="4" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="4" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="4" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="4" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="4" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="4" t="s">
         <v>351</v>
       </c>
     </row>
@@ -7975,10 +7973,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B27" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>$L$3:$L$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C27" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>$N$3:$N$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -7992,7 +7990,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
           <x14:formula1>
             <xm:f>'HTS Lab'!$H$2:$H$24</xm:f>
           </x14:formula1>
@@ -8005,16 +8003,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="75.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -8029,7 +8027,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -8067,7 +8065,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>392</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -8099,7 +8097,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>393</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -8128,7 +8126,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>394</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -8158,7 +8156,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>395</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -8189,7 +8187,7 @@
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>396</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -8221,7 +8219,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>397</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -8251,7 +8249,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>398</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -8281,7 +8279,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>399</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -8315,7 +8313,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="4" t="s">
         <v>400</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -8347,7 +8345,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="4" t="s">
         <v>401</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -8379,58 +8377,58 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="4" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="4" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="4" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="4" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="4" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="4" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="4" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="4" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="4" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="4" t="s">
         <v>411</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H11" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>$H$2:$H$26</formula1>
     </dataValidation>
   </dataValidations>
@@ -8442,13 +8440,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
           <x14:formula1>
             <xm:f>Configs!$O$3:$O$33</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E11 K2:K9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000002000000}">
           <x14:formula1>
             <xm:f>'HTS Lab'!$H$2:$H$25</xm:f>
           </x14:formula1>
@@ -8461,7 +8459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -8470,7 +8468,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="61.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
@@ -8486,7 +8484,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -8530,7 +8528,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>412</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -8563,7 +8561,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>413</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -8596,7 +8594,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>414</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -8629,7 +8627,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>415</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -8668,7 +8666,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>416</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -8701,7 +8699,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>417</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -8740,33 +8738,33 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="4" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="4" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="4" t="s">
         <v>422</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 F7 E6 F3 F5 E4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 F7 E6 F3 F5 E4" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>$H$2:$H$26</formula1>
     </dataValidation>
   </dataValidations>
@@ -8777,13 +8775,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000001000000}">
           <x14:formula1>
             <xm:f>Configs!$O$3:$O$33</xm:f>
           </x14:formula1>
           <xm:sqref>L5:M5 H2:H7 L7:M7</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000002000000}">
           <x14:formula1>
             <xm:f>'HTS Lab'!$H$2:$H$25</xm:f>
           </x14:formula1>
@@ -8796,7 +8794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A14:A142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
